--- a/Prisdata DST/8var_est_res.xlsx
+++ b/Prisdata DST/8var_est_res.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="96">
   <si>
     <t>kod_fisk_mej</t>
   </si>
@@ -38,7 +38,7 @@
     <t>ovr_var</t>
   </si>
   <si>
-    <t>tra.1</t>
+    <t>ovr_tje</t>
   </si>
   <si>
     <t>decil</t>
@@ -56,6 +56,12 @@
     <t>acorr</t>
   </si>
   <si>
+    <t>ownp_el</t>
+  </si>
+  <si>
+    <t>inc_el</t>
+  </si>
+  <si>
     <t>decil.1</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
     <t>acorr.1</t>
   </si>
   <si>
+    <t>ownp_el.1</t>
+  </si>
+  <si>
+    <t>inc_el.1</t>
+  </si>
+  <si>
     <t>decil.2</t>
   </si>
   <si>
@@ -86,6 +98,12 @@
     <t>acorr.2</t>
   </si>
   <si>
+    <t>ownp_el.2</t>
+  </si>
+  <si>
+    <t>inc_el.2</t>
+  </si>
+  <si>
     <t>decil.3</t>
   </si>
   <si>
@@ -101,6 +119,12 @@
     <t>acorr.3</t>
   </si>
   <si>
+    <t>ownp_el.3</t>
+  </si>
+  <si>
+    <t>inc_el.3</t>
+  </si>
+  <si>
     <t>decil.4</t>
   </si>
   <si>
@@ -116,6 +140,12 @@
     <t>acorr.4</t>
   </si>
   <si>
+    <t>ownp_el.4</t>
+  </si>
+  <si>
+    <t>inc_el.4</t>
+  </si>
+  <si>
     <t>decil.5</t>
   </si>
   <si>
@@ -131,6 +161,12 @@
     <t>acorr.5</t>
   </si>
   <si>
+    <t>ownp_el.5</t>
+  </si>
+  <si>
+    <t>inc_el.5</t>
+  </si>
+  <si>
     <t>decil.6</t>
   </si>
   <si>
@@ -146,6 +182,12 @@
     <t>acorr.6</t>
   </si>
   <si>
+    <t>ownp_el.6</t>
+  </si>
+  <si>
+    <t>inc_el.6</t>
+  </si>
+  <si>
     <t>decil.7</t>
   </si>
   <si>
@@ -161,6 +203,12 @@
     <t>acorr.7</t>
   </si>
   <si>
+    <t>ownp_el.7</t>
+  </si>
+  <si>
+    <t>inc_el.7</t>
+  </si>
+  <si>
     <t>decil.8</t>
   </si>
   <si>
@@ -173,6 +221,57 @@
     <t>beta_sol.8</t>
   </si>
   <si>
+    <t>acorr.8</t>
+  </si>
+  <si>
+    <t>ownp_el.8</t>
+  </si>
+  <si>
+    <t>inc_el.8</t>
+  </si>
+  <si>
+    <t>decil.9</t>
+  </si>
+  <si>
+    <t>alpha_sol.9</t>
+  </si>
+  <si>
+    <t>bstar_sol.9</t>
+  </si>
+  <si>
+    <t>beta_sol.9</t>
+  </si>
+  <si>
+    <t>acorr.9</t>
+  </si>
+  <si>
+    <t>ownp_el.9</t>
+  </si>
+  <si>
+    <t>inc_el.9</t>
+  </si>
+  <si>
+    <t>decil.10</t>
+  </si>
+  <si>
+    <t>alpha_sol.10</t>
+  </si>
+  <si>
+    <t>bstar_sol.10</t>
+  </si>
+  <si>
+    <t>beta_sol.10</t>
+  </si>
+  <si>
+    <t>acorr.10</t>
+  </si>
+  <si>
+    <t>ownp_el.10</t>
+  </si>
+  <si>
+    <t>inc_el.10</t>
+  </si>
+  <si>
     <t>b_sol</t>
   </si>
   <si>
@@ -200,43 +299,10 @@
     <t>b_sol.8</t>
   </si>
   <si>
-    <t>acorr.8</t>
-  </si>
-  <si>
-    <t>decil.9</t>
-  </si>
-  <si>
-    <t>alpha_sol.9</t>
-  </si>
-  <si>
     <t>b_sol.9</t>
   </si>
   <si>
-    <t>acorr.9</t>
-  </si>
-  <si>
-    <t>decil.10</t>
-  </si>
-  <si>
-    <t>alpha_sol.10</t>
-  </si>
-  <si>
     <t>b_sol.10</t>
-  </si>
-  <si>
-    <t>acorr.10</t>
-  </si>
-  <si>
-    <t>bstar_sol.9</t>
-  </si>
-  <si>
-    <t>beta_sol.9</t>
-  </si>
-  <si>
-    <t>bstar_sol.10</t>
-  </si>
-  <si>
-    <t>beta_sol.10</t>
   </si>
 </sst>
 </file>
@@ -348,28 +414,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03277006255624542</v>
+        <v>0.032184039253579204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.037470597602728396</v>
+        <v>0.0335906886876405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06328178950182202</v>
+        <v>0.08075356825196008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08651455405685485</v>
+        <v>0.08311554138968735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022690083739722453</v>
+        <v>0.022792761015764565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2706023620720251</v>
+        <v>0.2517747937696946</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2657804038650279</v>
+        <v>0.30506813389916765</v>
       </c>
       <c r="I3" t="n">
-        <v>0.22089014660557396</v>
+        <v>0.19072047373250614</v>
       </c>
     </row>
     <row r="4">
@@ -377,28 +443,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>13286.873556749786</v>
+        <v>4551.322253101009</v>
       </c>
       <c r="C4" t="n">
-        <v>28421.336190420243</v>
+        <v>3425.0076117796525</v>
       </c>
       <c r="D4" t="n">
-        <v>67885.29760566108</v>
+        <v>6382.258299909206</v>
       </c>
       <c r="E4" t="n">
-        <v>29022.422817521223</v>
+        <v>24466.43840324304</v>
       </c>
       <c r="F4" t="n">
-        <v>4822.09593834539</v>
+        <v>653.799345328021</v>
       </c>
       <c r="G4" t="n">
-        <v>9146.58776151155</v>
+        <v>8878.35510873867</v>
       </c>
       <c r="H4" t="n">
-        <v>10200.340056244158</v>
+        <v>11401.712028448248</v>
       </c>
       <c r="I4" t="n">
-        <v>27039.19023563119</v>
+        <v>3797.978876064451</v>
       </c>
     </row>
     <row r="5">
@@ -406,28 +472,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.11703043570507643</v>
+        <v>0.6830992522117995</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08565678792044507</v>
+        <v>0.8839990615683097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06035278281769794</v>
+        <v>0.9171787930797167</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.46692109001066806</v>
+        <v>-0.046898756684375986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2930254990546751</v>
+        <v>0.9150302754841829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11906219361496441</v>
+        <v>0.733952666614879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4129684244313072</v>
+        <v>0.788360669863564</v>
       </c>
       <c r="I5" t="n">
-        <v>0.36021182836355764</v>
+        <v>0.9541582370983187</v>
       </c>
     </row>
     <row r="6">
@@ -435,28 +501,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9122813632564473</v>
+        <v>0.08387250476717246</v>
       </c>
     </row>
     <row r="7">
@@ -464,28 +530,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>-0.03778953668337093</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>-0.04092431164657795</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>-0.07766804426334661</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>-0.07981764138032443</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>-0.032956655985113104</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>-0.25657721890456964</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>-0.3059030752630979</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>-0.18626631619572076</v>
       </c>
     </row>
     <row r="8">
@@ -493,28 +559,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.026004043038357384</v>
+        <v>0.7588427224445986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05317972938996499</v>
+        <v>0.3733267316076533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12202834370868003</v>
+        <v>0.4172680618268175</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06369960604802835</v>
+        <v>1.311909809660274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.037103056234259704</v>
+        <v>0.8233663218481166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.22957576916523742</v>
+        <v>2.5214925068957394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.240415005622934</v>
+        <v>1.8020462735068736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2279944467925381</v>
+        <v>1.0955977153710694</v>
       </c>
     </row>
     <row r="9">
@@ -522,28 +588,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>2562.390245005223</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-837.5816844191473</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>19090.5218594776</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4342.522048226469</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>556.437526307522</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1263.5583632839307</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4130.432776075434</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>2858.4663764724505</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -551,28 +617,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>0.674891881064633</v>
+        <v>0.025640093561979133</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9499794141205952</v>
+        <v>0.049023587882514034</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5364560396231406</v>
+        <v>0.12437479454233744</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6126007065400957</v>
+        <v>0.06628751794888879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6416503232203793</v>
+        <v>0.034736090361441235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6536197111716582</v>
+        <v>0.2271610690311742</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6803520006282522</v>
+        <v>0.24454243292175715</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7575839885856431</v>
+        <v>0.22823441374990802</v>
       </c>
     </row>
     <row r="11">
@@ -580,28 +646,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>2795.6925073709067</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>-819.0119008233875</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>19165.205631654928</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>3809.8006809391927</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>544.5270103284446</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>-711.3300494239018</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>4403.089322150723</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.18394458357531798</v>
+        <v>3157.728910097674</v>
       </c>
     </row>
     <row r="12">
@@ -609,28 +675,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>0.6584209731232368</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>0.9582424420652977</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>0.539257566858548</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>0.6492861732340129</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>0.6731946465513984</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>0.6537426464729105</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>0.683421027805366</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0</v>
+        <v>0.7619400255222162</v>
       </c>
     </row>
     <row r="13">
@@ -638,28 +704,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03505811795276356</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08788128360792698</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.12105267932475194</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05373413603941229</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0551269821730452</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19356977947266976</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="H13" t="n">
-        <v>0.35354438043738634</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="I13" t="n">
-        <v>0.10003264099204393</v>
+        <v>-0.19371594281160281</v>
       </c>
     </row>
     <row r="14">
@@ -667,28 +733,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>4628.160449521601</v>
+        <v>-0.10330829115785667</v>
       </c>
       <c r="C14" t="n">
-        <v>3509.967281348145</v>
+        <v>-0.11356188630809883</v>
       </c>
       <c r="D14" t="n">
-        <v>18302.446350632974</v>
+        <v>-0.18903321353653246</v>
       </c>
       <c r="E14" t="n">
-        <v>18538.372594433302</v>
+        <v>-0.1844276648584129</v>
       </c>
       <c r="F14" t="n">
-        <v>1006.9368173925515</v>
+        <v>-0.2424847194471521</v>
       </c>
       <c r="G14" t="n">
-        <v>-379.0177599308457</v>
+        <v>-0.5231097512889715</v>
       </c>
       <c r="H14" t="n">
-        <v>3156.075711212477</v>
+        <v>-0.38861566935536707</v>
       </c>
       <c r="I14" t="n">
-        <v>-96.18875834511526</v>
+        <v>-0.3523632292052966</v>
       </c>
     </row>
     <row r="15">
@@ -696,28 +762,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5886777027695623</v>
+        <v>0.5435465735846369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8267508209263612</v>
+        <v>0.4605632223929071</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6543428120592163</v>
+        <v>0.6152965636770698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04083964873975168</v>
+        <v>0.9643146355296368</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7270990881312355</v>
+        <v>1.5754775680350381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9444956610343364</v>
+        <v>2.8150391816844675</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8377571444319672</v>
+        <v>1.4565580932668682</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9928314320002689</v>
+        <v>1.3937190896320084</v>
       </c>
     </row>
     <row r="16">
@@ -725,28 +791,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.25484131470495924</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -754,28 +820,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>0.033411290660045015</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>0.08319614810559718</v>
       </c>
       <c r="D17" t="n">
-        <v>3.0</v>
+        <v>0.12869471136322402</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>0.055379906668908</v>
       </c>
       <c r="F17" t="n">
-        <v>3.0</v>
+        <v>0.05313872405447732</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0</v>
+        <v>0.18616411675527048</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>0.36283391183077857</v>
       </c>
       <c r="I17" t="n">
-        <v>3.0</v>
+        <v>0.09718119056169951</v>
       </c>
     </row>
     <row r="18">
@@ -783,28 +849,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01922325848062547</v>
+        <v>4740.83173866087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.044034397238916695</v>
+        <v>3392.142724493224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.056001791683973616</v>
+        <v>18690.688289580212</v>
       </c>
       <c r="E18" t="n">
-        <v>0.023961645792103196</v>
+        <v>18958.668488043528</v>
       </c>
       <c r="F18" t="n">
-        <v>0.041660622544903825</v>
+        <v>1057.4180824312466</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3099869188153758</v>
+        <v>59.292603067406986</v>
       </c>
       <c r="H18" t="n">
-        <v>0.29710245395645773</v>
+        <v>3760.414232283148</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2080289114876436</v>
+        <v>575.1157505294794</v>
       </c>
     </row>
     <row r="19">
@@ -812,28 +878,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>3679.0672899506794</v>
+        <v>0.5834620998291166</v>
       </c>
       <c r="C19" t="n">
-        <v>3379.8097417651734</v>
+        <v>0.8378121560102333</v>
       </c>
       <c r="D19" t="n">
-        <v>11405.38024128971</v>
+        <v>0.6511512589765522</v>
       </c>
       <c r="E19" t="n">
-        <v>16960.837691890552</v>
+        <v>0.024740966015469937</v>
       </c>
       <c r="F19" t="n">
-        <v>505.25423573010784</v>
+        <v>0.7388961044436584</v>
       </c>
       <c r="G19" t="n">
-        <v>1399.6451135216776</v>
+        <v>0.9418559312371926</v>
       </c>
       <c r="H19" t="n">
-        <v>5078.825599219775</v>
+        <v>0.8373429222107566</v>
       </c>
       <c r="I19" t="n">
-        <v>-2681.8046138839595</v>
+        <v>0.981501028168732</v>
       </c>
     </row>
     <row r="20">
@@ -841,28 +907,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6410699746875188</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8052472938927433</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7725943562707472</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="E20" t="n">
-        <v>0.15629818129822537</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.692269540419853</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="G20" t="n">
-        <v>0.402946153935223</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6180011075932204</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9298442930479155</v>
+        <v>-0.2569096934103902</v>
       </c>
     </row>
     <row r="21">
@@ -870,28 +936,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.05528899492288797</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.10974210165392684</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.13949650517225276</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.06669777507361163</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.11971441313536502</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.24332935584088244</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.39662967695800744</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04774826845681181</v>
+        <v>-0.10503283650649287</v>
       </c>
     </row>
     <row r="22">
@@ -899,28 +965,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>0.6636030014653733</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>0.7868612938444624</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>0.6016522157942198</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>0.7195751674651267</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>2.3649266007051444</v>
       </c>
       <c r="G22" t="n">
-        <v>4.0</v>
+        <v>2.8128782750931074</v>
       </c>
       <c r="H22" t="n">
-        <v>4.0</v>
+        <v>2.2640545598038826</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0</v>
+        <v>0.6036323958453548</v>
       </c>
     </row>
     <row r="23">
@@ -928,28 +994,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02464816910362611</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09220598932465804</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0805882210603005</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.016344975945082014</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03467092685037765</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2846877883660928</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2530977751720239</v>
+        <v>3.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.21375615417783894</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -957,28 +1023,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>4322.877005969985</v>
+        <v>0.019702398696013597</v>
       </c>
       <c r="C24" t="n">
-        <v>5841.33577042899</v>
+        <v>0.044537580822971976</v>
       </c>
       <c r="D24" t="n">
-        <v>12907.02935782839</v>
+        <v>0.055639265510373875</v>
       </c>
       <c r="E24" t="n">
-        <v>10066.241305466852</v>
+        <v>0.023321445857700508</v>
       </c>
       <c r="F24" t="n">
-        <v>731.0297514562394</v>
+        <v>0.04200332752780112</v>
       </c>
       <c r="G24" t="n">
-        <v>8498.281181867022</v>
+        <v>0.3090104492253403</v>
       </c>
       <c r="H24" t="n">
-        <v>11164.018738749357</v>
+        <v>0.2954865228505873</v>
       </c>
       <c r="I24" t="n">
-        <v>5795.541315289747</v>
+        <v>0.21029900950921138</v>
       </c>
     </row>
     <row r="25">
@@ -986,28 +1052,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6804522498033004</v>
+        <v>4219.835075595918</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7981569543247783</v>
+        <v>3275.192694094835</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8008986847820536</v>
+        <v>11831.381977862666</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5579291814355528</v>
+        <v>17676.393984292354</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8931336146929382</v>
+        <v>507.1355440186584</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6468104095834564</v>
+        <v>1335.983795882174</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7564556403313126</v>
+        <v>4961.420139269823</v>
       </c>
       <c r="I25" t="n">
-        <v>0.905604230696205</v>
+        <v>-2993.7971257174663</v>
       </c>
     </row>
     <row r="26">
@@ -1015,28 +1081,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.5915091980581356</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.8055316399494523</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.7641258291371033</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.1218387753485853</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.6807909847245381</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.38509806566748794</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.612172744152188</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.15305798054362418</v>
+        <v>0.9287208183484315</v>
       </c>
     </row>
     <row r="27">
@@ -1044,28 +1110,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="C27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="F27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="G27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="H27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="I27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
     </row>
     <row r="28">
@@ -1073,28 +1139,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>0.016270811075880433</v>
+        <v>-0.07737583470145437</v>
       </c>
       <c r="C28" t="n">
-        <v>4.4169378356620316E-5</v>
+        <v>-0.10903010958007031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32741160120824603</v>
+        <v>-0.08789335737086545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.019127028936978503</v>
+        <v>-0.059750732721812416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0029509195273810978</v>
+        <v>-0.2632317788456153</v>
       </c>
       <c r="G28" t="n">
-        <v>0.10165900004472593</v>
+        <v>-0.6863265983845386</v>
       </c>
       <c r="H28" t="n">
-        <v>0.035933069507124854</v>
+        <v>-0.47390249861966194</v>
       </c>
       <c r="I28" t="n">
-        <v>0.49660340032130645</v>
+        <v>-0.32384883466743275</v>
       </c>
     </row>
     <row r="29">
@@ -1102,28 +1168,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>3439.314584877438</v>
+        <v>0.41774720863964643</v>
       </c>
       <c r="C29" t="n">
-        <v>8274.704748208507</v>
+        <v>0.45093253957739887</v>
       </c>
       <c r="D29" t="n">
-        <v>24834.126954073676</v>
+        <v>0.26276866290119816</v>
       </c>
       <c r="E29" t="n">
-        <v>21809.42865303324</v>
+        <v>0.3030140424923907</v>
       </c>
       <c r="F29" t="n">
-        <v>977.1709786087207</v>
+        <v>1.7383192798155505</v>
       </c>
       <c r="G29" t="n">
-        <v>4597.960900602479</v>
+        <v>4.0544699421737675</v>
       </c>
       <c r="H29" t="n">
-        <v>6740.578033038704</v>
+        <v>1.910123064139928</v>
       </c>
       <c r="I29" t="n">
-        <v>-8482.976725328836</v>
+        <v>1.2596763893953293</v>
       </c>
     </row>
     <row r="30">
@@ -1131,28 +1197,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5446143303640751</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7350172689323937</v>
+        <v>4.0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3436710597387543</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.09045909730000079</v>
+        <v>4.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8153283009956147</v>
+        <v>4.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1693365590675334</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7410052124057742</v>
+        <v>4.0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.36695095541757433</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1160,28 +1226,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.025395860639553285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.09130017010761385</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.08524901137900393</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.014864279483104864</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.03407509776347856</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.28482149263414724</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.2469272968858357</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0769082013340036</v>
+        <v>0.2173667911072625</v>
       </c>
     </row>
     <row r="32">
@@ -1189,28 +1255,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>4847.781323804048</v>
       </c>
       <c r="C32" t="n">
-        <v>6.0</v>
+        <v>4659.773691623796</v>
       </c>
       <c r="D32" t="n">
-        <v>6.0</v>
+        <v>13860.746237427451</v>
       </c>
       <c r="E32" t="n">
-        <v>6.0</v>
+        <v>10023.820116691179</v>
       </c>
       <c r="F32" t="n">
-        <v>6.0</v>
+        <v>567.9694370043919</v>
       </c>
       <c r="G32" t="n">
-        <v>6.0</v>
+        <v>7731.084951222758</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0</v>
+        <v>11271.38990748444</v>
       </c>
       <c r="I32" t="n">
-        <v>6.0</v>
+        <v>4299.5226757621</v>
       </c>
     </row>
     <row r="33">
@@ -1218,28 +1284,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>0.030019227409931043</v>
+        <v>0.633229601056888</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05169860779006552</v>
+        <v>0.8244376000612411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16991182885585304</v>
+        <v>0.7808482048437806</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07061183007676655</v>
+        <v>0.5572567359692636</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005300798682655275</v>
+        <v>0.8959972440783295</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2815058898507097</v>
+        <v>0.634020552707273</v>
       </c>
       <c r="H33" t="n">
-        <v>0.10982527463513318</v>
+        <v>0.7348286846932542</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2811265426988857</v>
+        <v>0.9181787384089249</v>
       </c>
     </row>
     <row r="34">
@@ -1247,28 +1313,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>22367.276117817022</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="C34" t="n">
-        <v>12981.311482693987</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="D34" t="n">
-        <v>32012.379237125173</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="E34" t="n">
-        <v>10892.673588413298</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="F34" t="n">
-        <v>8700.276491827262</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="G34" t="n">
-        <v>-23073.416555993386</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="H34" t="n">
-        <v>23552.71300295657</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="I34" t="n">
-        <v>18914.86973904528</v>
+        <v>-0.14143919906272043</v>
       </c>
     </row>
     <row r="35">
@@ -1276,28 +1342,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.7733338535399052</v>
+        <v>-0.03487114786812562</v>
       </c>
       <c r="C35" t="n">
-        <v>0.27470809401256924</v>
+        <v>-0.10779713005676539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07894342710011995</v>
+        <v>-0.08953966103607125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009859231438845947</v>
+        <v>-0.012774003994621141</v>
       </c>
       <c r="F35" t="n">
-        <v>0.10576930627499738</v>
+        <v>-0.0623311277705072</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04132670296011655</v>
+        <v>-0.32621208669772994</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1860754482601125</v>
+        <v>-0.26055887177380077</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.043695150371596284</v>
+        <v>-0.22541540365883295</v>
       </c>
     </row>
     <row r="36">
@@ -1305,28 +1371,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8055510535105739</v>
+        <v>0.5601371894741065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8055510535105739</v>
+        <v>0.946508044517078</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8055510535105739</v>
+        <v>0.42362968331754997</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8055510535105739</v>
+        <v>0.21105851767123063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8055510535105739</v>
+        <v>1.2406839627517263</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8055510535105739</v>
+        <v>3.423397512724108</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8055510535105739</v>
+        <v>1.4993879519216362</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8055510535105739</v>
+        <v>1.2810811214835072</v>
       </c>
     </row>
     <row r="37">
@@ -1334,28 +1400,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -1363,28 +1429,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03664009951415525</v>
+        <v>0.029663984973466714</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09454760929263642</v>
+        <v>0.04868009599185509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08481192505273362</v>
+        <v>0.13246018182906852</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03202707317624829</v>
+        <v>0.041068298317017915</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0319747962359826</v>
+        <v>0.01604441713514488</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3153938004461332</v>
+        <v>0.28852807030049615</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2609839139594859</v>
+        <v>0.21773201838244402</v>
       </c>
       <c r="I38" t="n">
-        <v>0.14362078232262476</v>
+        <v>0.22582293307050677</v>
       </c>
     </row>
     <row r="39">
@@ -1392,28 +1458,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>3484.3171374105423</v>
+        <v>3391.039266611952</v>
       </c>
       <c r="C39" t="n">
-        <v>5426.397360758504</v>
+        <v>2885.2023978787756</v>
       </c>
       <c r="D39" t="n">
-        <v>12642.465417728412</v>
+        <v>10419.757402887297</v>
       </c>
       <c r="E39" t="n">
-        <v>8777.095937076248</v>
+        <v>21130.176469060363</v>
       </c>
       <c r="F39" t="n">
-        <v>1220.794873853686</v>
+        <v>136.37319678767486</v>
       </c>
       <c r="G39" t="n">
-        <v>13443.287718193606</v>
+        <v>9559.12792967049</v>
       </c>
       <c r="H39" t="n">
-        <v>4825.72974276406</v>
+        <v>970.4545311833195</v>
       </c>
       <c r="I39" t="n">
-        <v>856.8115902351185</v>
+        <v>-5984.4601802578245</v>
       </c>
     </row>
     <row r="40">
@@ -1421,28 +1487,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7370485657888547</v>
+        <v>0.7156591309335424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7800601037749152</v>
+        <v>0.8641157112134593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8128996003099473</v>
+        <v>0.8058250375884298</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6246359655090115</v>
+        <v>0.06551724525883132</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8271433328432687</v>
+        <v>0.925410721958667</v>
       </c>
       <c r="G40" t="n">
-        <v>0.49071903488182483</v>
+        <v>0.4412549744524576</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8390692685091605</v>
+        <v>0.88933583919542</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9641356957762413</v>
+        <v>1.0348443131759513</v>
       </c>
     </row>
     <row r="41">
@@ -1450,28 +1516,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.25680027528470856</v>
+        <v>-0.14324174518647956</v>
       </c>
     </row>
     <row r="42">
@@ -1479,28 +1545,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0</v>
+        <v>-0.0806552239633016</v>
       </c>
       <c r="C42" t="n">
-        <v>8.0</v>
+        <v>-0.09100758372014761</v>
       </c>
       <c r="D42" t="n">
-        <v>8.0</v>
+        <v>-0.1731830275048335</v>
       </c>
       <c r="E42" t="n">
-        <v>8.0</v>
+        <v>-0.0719322859014474</v>
       </c>
       <c r="F42" t="n">
-        <v>8.0</v>
+        <v>-0.06731239047944582</v>
       </c>
       <c r="G42" t="n">
-        <v>8.0</v>
+        <v>-0.45102740200680225</v>
       </c>
       <c r="H42" t="n">
-        <v>8.0</v>
+        <v>-0.28896809233645804</v>
       </c>
       <c r="I42" t="n">
-        <v>8.0</v>
+        <v>-0.28452410897402025</v>
       </c>
     </row>
     <row r="43">
@@ -1508,28 +1574,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04598073183298223</v>
+        <v>0.6652993807221976</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05335648845638884</v>
+        <v>0.515292672854412</v>
       </c>
       <c r="D43" t="n">
-        <v>0.18023673073385735</v>
+        <v>0.6814300006683889</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04590347827721491</v>
+        <v>0.6175661677168934</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04386140996987703</v>
+        <v>0.5776738197981988</v>
       </c>
       <c r="G43" t="n">
-        <v>0.31081969349071165</v>
+        <v>3.2465132327063753</v>
       </c>
       <c r="H43" t="n">
-        <v>0.10095856930973335</v>
+        <v>1.3138363420062649</v>
       </c>
       <c r="I43" t="n">
-        <v>0.21888289792923468</v>
+        <v>1.2779329673375452</v>
       </c>
     </row>
     <row r="44">
@@ -1537,28 +1603,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>-3103.3283680742966</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="n">
-        <v>6973.545769100136</v>
+        <v>6.0</v>
       </c>
       <c r="D44" t="n">
-        <v>28889.769896861588</v>
+        <v>6.0</v>
       </c>
       <c r="E44" t="n">
-        <v>27248.494817264942</v>
+        <v>6.0</v>
       </c>
       <c r="F44" t="n">
-        <v>-2054.042110758168</v>
+        <v>6.0</v>
       </c>
       <c r="G44" t="n">
-        <v>13935.044910470931</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n">
-        <v>11183.592231504135</v>
+        <v>6.0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1136.67745925876</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1566,28 +1632,985 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>1.044735207139913</v>
+        <v>0.032656291613965785</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7262434303800956</v>
+        <v>0.04909006988345536</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5205764808745095</v>
+        <v>0.1749327878622201</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.19225676540902797</v>
+        <v>0.06314202773673191</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9692600000245188</v>
+        <v>0.004227504499049152</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3150574302180847</v>
+        <v>0.2764595121676693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7554681448359053</v>
+        <v>0.11085565652432874</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8954197118241776</v>
+        <v>0.2886361497125796</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19599.664854435785</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13055.314810930788</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24147.785141544962</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10566.909706583683</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9127.903077009078</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-32823.7855103044</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22626.68153383727</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9210.483333747019</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.7227956321963531</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.21318602442649628</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.06402997274350775</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.02137164222209879</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.06993547071941204</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0035804291286890473</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.11548525280027433</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.0970007530771068</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8249650299413964</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.5011159017760556</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.44026547627132473</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6707645518698797</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6222864129832631</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.11846208447084527</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1.660300873076809</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.5328865915195813</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.9725307226617287</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.743525661701105</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5332275116782752</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9415173195790411</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9712586142782238</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1425672387810933</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.7255070390370277</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6717517736372691</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.6300893758786836</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.037167877870337346</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.09260003195049517</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.08081201821481807</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.03536261887357758</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.033118378637283084</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3131622154841161</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.26044866241779324</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.14732819655157947</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2730.191792657255</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5163.227251557042</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11524.009641123492</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8743.571107696664</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1143.898729458685</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11663.055973221757</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3435.014427028548</v>
+      </c>
+      <c r="I53" t="n">
+        <v>119.05089230436488</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7694142148040385</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7736087544625575</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8229806543742562</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6151570423892989</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8157469551293877</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.49363822467860735</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8410562941857768</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9620515133672706</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.25318902303092206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.0973325135393357</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.16566612773073575</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.10472680716379512</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.07190789245043716</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.11482286225178606</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.45996417804777134</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.3376827541027614</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.18609692896571395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8786493501200595</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.0442542858224308</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4381095515665473</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5729487026320637</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0712208502471996</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.9336904173589353</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.5180294348790946</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8431256216449872</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.045177368314748084</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.05364503992035512</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.18150247352848403</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.04776583115217104</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.04472976664355734</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.31149231278142847</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.09868118393386688</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.217006023725389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2991.3329802811695</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5357.839932133579</v>
+      </c>
+      <c r="D60" t="n">
+        <v>27348.743365566115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26706.78298966723</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-2454.799485227792</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12252.637817168325</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12330.014150844512</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1729.6163270964155</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0242394722603485</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7590204828036805</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5227139309526965</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.1879633243085849</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.972604098826415</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3057348120149414</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.7292593682168904</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8857196475889524</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.19201955174871221</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.1405927447580394</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.290307952259671</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.15267705961292866</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.2471439325014907</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.5930859000053308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.16507005434152355</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.33085940078577714</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0891464630518077</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6141634598081075</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9890424323235751</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8190751264732575</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.4570966770765854</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.866554301184868</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5782947906163249</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.2029084638725085</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.03401205514410163</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.030931710944763234</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.15399094085801973</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.03881625019322132</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.04741636366835712</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2236086672729267</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.2390622685889931</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.23216174332961725</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5004.419211207939</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6967.463885865936</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5656.052559604626</v>
+      </c>
+      <c r="E67" t="n">
+        <v>26538.58262934034</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2002.0529772404261</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-6197.010199232216</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14949.704555116008</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-7275.35943410147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3985661858430597</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6842037688481286</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7947297569447265</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.2521932115120875</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.3153517236679319</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.48184972018926076</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3402132663927783</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7055217633048566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.3253355994072087</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.15663190670701788</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.38881246399762925</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.25508849831680747</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5595199644309031</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.7226883426498294</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.5809517651636105</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.5303104838173558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8876481057180376</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.37495834471960166</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8358890725476171</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.693846865733433</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.5579462022359534</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.9033248715663635</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.370522820819438</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.2994973926750994</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.021273386466653308</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01166653909724296</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.08401061599956634</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.032403156153292756</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.004882415870315801</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.13218832385542983</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.46542897967945757</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.24814658287804153</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2296.733623859275</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9976.563856043102</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1025.8616826065754</v>
+      </c>
+      <c r="E74" t="n">
+        <v>23847.27580451243</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-190.0088934142953</v>
+      </c>
+      <c r="G74" t="n">
+        <v>36251.35575806403</v>
+      </c>
+      <c r="H74" t="n">
+        <v>54906.165078106125</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-2079.4734127012725</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7573837820339621</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7204345862065613</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9199641324684364</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07812721953323871</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9574991953203345</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.23620153042392641</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.1024604571049146</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7945198016059756</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.13769557822674294</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.04548175011978273</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.1542714466893551</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.14123292098971096</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.0468200912821084</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.30828091396139123</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.7266546241876772</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.4237106058830967</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6076603371879389</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.159174581466722</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.43766880176811124</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6218090240942639</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.18454767830299407</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0686192993389665</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.569468746102805</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.3847770108428414</v>
       </c>
     </row>
   </sheetData>
@@ -1664,57 +2687,57 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03106718344700692</v>
+        <v>0.03387799757031071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.037139660186037364</v>
+        <v>0.035464342683457155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1338984575476283</v>
+        <v>0.12697933878386922</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05150582242909016</v>
+        <v>0.04113086205255568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008616022179964303</v>
+        <v>0.010113259075598485</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22016091119413528</v>
+        <v>0.22640314205896608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2205716971223754</v>
+        <v>0.23045135514298734</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2970402458937623</v>
+        <v>0.2955797026322553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
-        <v>6045.190721781093</v>
+        <v>6020.606676395528</v>
       </c>
       <c r="C4" t="n">
-        <v>17331.360606861992</v>
+        <v>18389.44564576405</v>
       </c>
       <c r="D4" t="n">
-        <v>54903.46372953488</v>
+        <v>54496.46186585877</v>
       </c>
       <c r="E4" t="n">
-        <v>14942.540515315397</v>
+        <v>16142.571690731822</v>
       </c>
       <c r="F4" t="n">
-        <v>8376.511066444318</v>
+        <v>8316.856509491055</v>
       </c>
       <c r="G4" t="n">
-        <v>-7295.434342635929</v>
+        <v>-9533.454406212784</v>
       </c>
       <c r="H4" t="n">
-        <v>1711.2309601292277</v>
+        <v>4942.371843538322</v>
       </c>
       <c r="I4" t="n">
-        <v>16796.091488242855</v>
+        <v>18445.78069560775</v>
       </c>
     </row>
     <row r="5">
@@ -1722,28 +2745,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9524283389390127</v>
+        <v>0.9448827035827084</v>
       </c>
     </row>
     <row r="6">
@@ -1751,28 +2774,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>-0.6040049686298112</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>-0.45687325899196674</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>-0.3393409602417554</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>-0.33546601854581204</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>-0.17977975075096964</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>-1.217872762679289</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>-0.9300390710477422</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>-0.798472130009408</v>
       </c>
     </row>
     <row r="7">
@@ -1780,115 +2803,115 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.022419448725186593</v>
+        <v>0.7987832634888135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06009229567222043</v>
+        <v>0.39415051193935036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12742950346349713</v>
+        <v>0.6561248466579048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0870249831761589</v>
+        <v>0.6492165063756228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.022327940201320055</v>
+        <v>0.36533164723717826</v>
       </c>
       <c r="G7" t="n">
-        <v>0.22305412095566893</v>
+        <v>2.2673986450030768</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21981779102786334</v>
+        <v>1.3612828073917769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.23783391677808452</v>
+        <v>1.697963729726017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>7898.8067830243635</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>16812.385651499648</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>35844.265228566175</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>6776.16114496211</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2378.895400971137</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>-7295.12018727776</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>11682.236231583598</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>14531.970003399656</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.022469380707925164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.059384224172275624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.12882585144313413</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.08784339768899842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.022603180078241126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.21790798683492218</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.22107932244271095</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7935969139409063</v>
+        <v>0.2398866566317924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B10" t="n">
-        <v>2.0</v>
+        <v>7667.067775318807</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>16487.17093136868</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>34926.25154336908</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>6264.413815150718</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>2343.2094764602666</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>-8610.190896398342</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>10408.47553527589</v>
       </c>
       <c r="I10" t="n">
-        <v>2.0</v>
+        <v>13271.383812466182</v>
       </c>
     </row>
     <row r="11">
@@ -1896,1014 +2919,1652 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03718690444123788</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08032164158218752</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12978855618023558</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0468490088102101</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0367409139517435</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2006241765086022</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3541697832332255</v>
+        <v>0.7621366288587887</v>
       </c>
       <c r="I11" t="n">
-        <v>0.11431901529255767</v>
+        <v>0.7621366288587887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>10715.30846809046</v>
+        <v>-0.30342258101242103</v>
       </c>
       <c r="C12" t="n">
-        <v>22835.747356863754</v>
+        <v>-0.39050110712544694</v>
       </c>
       <c r="D12" t="n">
-        <v>52697.46344180858</v>
+        <v>-0.3857764281137922</v>
       </c>
       <c r="E12" t="n">
-        <v>18705.371613112275</v>
+        <v>-0.6566899539836022</v>
       </c>
       <c r="F12" t="n">
-        <v>4166.619635421305</v>
+        <v>-0.5650000443345896</v>
       </c>
       <c r="G12" t="n">
-        <v>10449.262171339937</v>
+        <v>-1.3737661497217197</v>
       </c>
       <c r="H12" t="n">
-        <v>26033.740665029312</v>
+        <v>-0.7716740888037088</v>
       </c>
       <c r="I12" t="n">
-        <v>39526.6145625913</v>
+        <v>-0.7474616285088589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7819115743838546</v>
+        <v>0.47633035600431506</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7819115743838546</v>
+        <v>0.5578985713903943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7819115743838546</v>
+        <v>0.6373164594756437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7819115743838546</v>
+        <v>1.2778978101347278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7819115743838546</v>
+        <v>1.025181671540534</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7819115743838546</v>
+        <v>2.700372575100477</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7819115743838546</v>
+        <v>1.3168057277851521</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7819115743838546</v>
+        <v>1.4648737988394733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0.014838031637917365</v>
+        <v>0.03437934959422162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.034045265142273726</v>
+        <v>0.07008776023768339</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06039314631016463</v>
+        <v>0.12267186722065174</v>
       </c>
       <c r="E15" t="n">
-        <v>0.036123671187626744</v>
+        <v>0.050995826201306896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.032264493922399426</v>
+        <v>0.03926660643886817</v>
       </c>
       <c r="G15" t="n">
-        <v>0.33699876530467077</v>
+        <v>0.20534223374759103</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2945087453264399</v>
+        <v>0.3510534393235424</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19082788116850743</v>
+        <v>0.12620291723613475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B16" t="n">
-        <v>11608.611115028018</v>
+        <v>10317.838652411294</v>
       </c>
       <c r="C16" t="n">
-        <v>24308.725924757397</v>
+        <v>22336.467440733737</v>
       </c>
       <c r="D16" t="n">
-        <v>60987.20039113989</v>
+        <v>51594.961116884944</v>
       </c>
       <c r="E16" t="n">
-        <v>21794.60758330218</v>
+        <v>18094.335252314453</v>
       </c>
       <c r="F16" t="n">
-        <v>5724.163055187765</v>
+        <v>3757.843487668513</v>
       </c>
       <c r="G16" t="n">
-        <v>23249.654424816537</v>
+        <v>8400.681228134064</v>
       </c>
       <c r="H16" t="n">
-        <v>38624.450987845215</v>
+        <v>23216.11819777829</v>
       </c>
       <c r="I16" t="n">
-        <v>51567.100743806026</v>
+        <v>38158.12707060151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8749229965798878</v>
+        <v>0.7610863408463215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>4.0</v>
+        <v>-0.17843669166058151</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>-0.22174864993911714</v>
       </c>
       <c r="D18" t="n">
-        <v>4.0</v>
+        <v>-0.18227047177051592</v>
       </c>
       <c r="E18" t="n">
-        <v>4.0</v>
+        <v>-0.12738539799381787</v>
       </c>
       <c r="F18" t="n">
-        <v>4.0</v>
+        <v>-0.36282003414623387</v>
       </c>
       <c r="G18" t="n">
-        <v>4.0</v>
+        <v>-0.5721746606754422</v>
       </c>
       <c r="H18" t="n">
-        <v>4.0</v>
+        <v>-0.5790631728218307</v>
       </c>
       <c r="I18" t="n">
-        <v>4.0</v>
+        <v>-0.19598387124049943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.022184650594754298</v>
+        <v>0.6828302387742028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08133855419853739</v>
+        <v>0.6628834021652709</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08592619600770117</v>
+        <v>0.5734952116300428</v>
       </c>
       <c r="E19" t="n">
-        <v>0.013793319662842174</v>
+        <v>0.6626109068441209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.028511091885788015</v>
+        <v>1.747551220678489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3093949214683948</v>
+        <v>3.1026532842900134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2414902373960917</v>
+        <v>2.1905453545532674</v>
       </c>
       <c r="I19" t="n">
-        <v>0.21736102878589048</v>
+        <v>0.7838982919802253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>14360.287093888383</v>
+        <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>32008.733941253628</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>68798.71813075694</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>23797.1816394045</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
-        <v>9253.066177304556</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
-        <v>36854.90684844433</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
-        <v>55740.08846181878</v>
+        <v>3.0</v>
       </c>
       <c r="I20" t="n">
-        <v>65840.98649088808</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.012352422836655271</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.024734176966138215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.055723580112673685</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.029039896717157128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.03616144132124065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.3324207488539076</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.2864182185220006</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7840469671979119</v>
+        <v>0.22314951467022676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B22" t="n">
-        <v>5.0</v>
+        <v>11097.184927417165</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>23131.62587956197</v>
       </c>
       <c r="D22" t="n">
-        <v>5.0</v>
+        <v>57551.30872293585</v>
       </c>
       <c r="E22" t="n">
-        <v>5.0</v>
+        <v>20183.797556599762</v>
       </c>
       <c r="F22" t="n">
-        <v>5.0</v>
+        <v>4670.868752060862</v>
       </c>
       <c r="G22" t="n">
-        <v>5.0</v>
+        <v>7850.647311737948</v>
       </c>
       <c r="H22" t="n">
-        <v>5.0</v>
+        <v>26650.291776618455</v>
       </c>
       <c r="I22" t="n">
-        <v>5.0</v>
+        <v>43668.89847011364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02604642634876818</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="C23" t="n">
-        <v>0.055397560628873244</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.11301144085695944</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="E23" t="n">
-        <v>0.011057330314722474</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.014476258881501643</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3252359484725549</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25175136452235924</v>
+        <v>0.8572892994833373</v>
       </c>
       <c r="I23" t="n">
-        <v>0.20302366997426086</v>
+        <v>0.8572892994833373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>16464.578601586858</v>
+        <v>-0.09675481524155738</v>
       </c>
       <c r="C24" t="n">
-        <v>35334.18494264341</v>
+        <v>-0.15287345812812014</v>
       </c>
       <c r="D24" t="n">
-        <v>84187.03426099042</v>
+        <v>-0.07153026227266601</v>
       </c>
       <c r="E24" t="n">
-        <v>26124.96368262192</v>
+        <v>-0.06767993774470626</v>
       </c>
       <c r="F24" t="n">
-        <v>10049.845605238419</v>
+        <v>-0.3082844942456333</v>
       </c>
       <c r="G24" t="n">
-        <v>57519.57198685193</v>
+        <v>-0.726943936483265</v>
       </c>
       <c r="H24" t="n">
-        <v>75167.26238020282</v>
+        <v>-0.4846830067945678</v>
       </c>
       <c r="I24" t="n">
-        <v>90769.84625583905</v>
+        <v>-0.2614601335608051</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8829623932722053</v>
+        <v>0.2619066967208124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8829623932722053</v>
+        <v>0.25042772929293655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8829623932722053</v>
+        <v>0.2631668571459665</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8829623932722053</v>
+        <v>0.3773135058400242</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8829623932722053</v>
+        <v>1.4965512099731986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8829623932722053</v>
+        <v>4.361632228818941</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8829623932722053</v>
+        <v>1.8515025318612628</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8829623932722053</v>
+        <v>1.3366500184243566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03764135060274399</v>
+        <v>0.024372376779630986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04786485641546422</v>
+        <v>0.07943394896537552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1653240916556469</v>
+        <v>0.1075968578890539</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05720546652752314</v>
+        <v>0.014480369775079955</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004256247299399159</v>
+        <v>0.012538482737202025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2741044454117262</v>
+        <v>0.3200355736354312</v>
       </c>
       <c r="H27" t="n">
-        <v>0.12249798103612015</v>
+        <v>0.19402768912433366</v>
       </c>
       <c r="I27" t="n">
-        <v>0.29110556105137625</v>
+        <v>0.2475147010938927</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B28" t="n">
-        <v>5057.595709311561</v>
+        <v>12130.270671492355</v>
       </c>
       <c r="C28" t="n">
-        <v>19195.016142317814</v>
+        <v>24682.522753472796</v>
       </c>
       <c r="D28" t="n">
-        <v>25146.071656601056</v>
+        <v>58980.458120560834</v>
       </c>
       <c r="E28" t="n">
-        <v>9858.434504759327</v>
+        <v>22377.884723360385</v>
       </c>
       <c r="F28" t="n">
-        <v>9935.449451061993</v>
+        <v>7281.565932300965</v>
       </c>
       <c r="G28" t="n">
-        <v>-42860.04628136587</v>
+        <v>7233.126561327678</v>
       </c>
       <c r="H28" t="n">
-        <v>22543.061211463257</v>
+        <v>36280.46962974176</v>
       </c>
       <c r="I28" t="n">
-        <v>-9099.078769873595</v>
+        <v>44624.04559731202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8492735376462447</v>
+        <v>0.7831018262847461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>7.0</v>
+        <v>-0.13222966252042567</v>
       </c>
       <c r="C30" t="n">
-        <v>7.0</v>
+        <v>-0.25277091369250426</v>
       </c>
       <c r="D30" t="n">
-        <v>7.0</v>
+        <v>-0.19069940770809346</v>
       </c>
       <c r="E30" t="n">
-        <v>7.0</v>
+        <v>-0.01933836583624504</v>
       </c>
       <c r="F30" t="n">
-        <v>7.0</v>
+        <v>-0.16867451004616363</v>
       </c>
       <c r="G30" t="n">
-        <v>7.0</v>
+        <v>-0.7992286172818952</v>
       </c>
       <c r="H30" t="n">
-        <v>7.0</v>
+        <v>-0.36340183761591016</v>
       </c>
       <c r="I30" t="n">
-        <v>7.0</v>
+        <v>-0.3848014925458332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029831672962602605</v>
+        <v>0.5375629841378202</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09356956845422668</v>
+        <v>0.8234910363788799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.13316196682553869</v>
+        <v>0.5346833012626535</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023980930619504966</v>
+        <v>0.20560736788711695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.020762424534706236</v>
+        <v>0.4565297085063405</v>
       </c>
       <c r="G31" t="n">
-        <v>0.26571013822818546</v>
+        <v>3.8466513767417</v>
       </c>
       <c r="H31" t="n">
-        <v>0.26866842224686077</v>
+        <v>1.1781718063626143</v>
       </c>
       <c r="I31" t="n">
-        <v>0.16431487612837456</v>
+        <v>1.4587619812842</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>11576.233966279882</v>
+        <v>5.0</v>
       </c>
       <c r="C32" t="n">
-        <v>18170.99096773375</v>
+        <v>5.0</v>
       </c>
       <c r="D32" t="n">
-        <v>57260.715309683335</v>
+        <v>5.0</v>
       </c>
       <c r="E32" t="n">
-        <v>22538.527254591652</v>
+        <v>5.0</v>
       </c>
       <c r="F32" t="n">
-        <v>8576.470848113297</v>
+        <v>5.0</v>
       </c>
       <c r="G32" t="n">
-        <v>-2807.906424108584</v>
+        <v>5.0</v>
       </c>
       <c r="H32" t="n">
-        <v>21032.366893500828</v>
+        <v>5.0</v>
       </c>
       <c r="I32" t="n">
-        <v>57148.31134819926</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.02577856252981258</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.06243104260101629</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.11128563080485046</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.015765217533938926</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.015806324253531644</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.29757817409891874</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.2779843041488289</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8835251799474867</v>
+        <v>0.19337074402910243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>17311.623515756364</v>
       </c>
       <c r="C34" t="n">
-        <v>8.0</v>
+        <v>38517.003913332635</v>
       </c>
       <c r="D34" t="n">
-        <v>8.0</v>
+        <v>90723.6760675391</v>
       </c>
       <c r="E34" t="n">
-        <v>8.0</v>
+        <v>27160.47048306</v>
       </c>
       <c r="F34" t="n">
-        <v>8.0</v>
+        <v>10048.331000354487</v>
       </c>
       <c r="G34" t="n">
-        <v>8.0</v>
+        <v>71098.69577680912</v>
       </c>
       <c r="H34" t="n">
-        <v>8.0</v>
+        <v>91154.65460995307</v>
       </c>
       <c r="I34" t="n">
-        <v>8.0</v>
+        <v>100641.37527447964</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04273378194409452</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="C35" t="n">
-        <v>0.061534030363931104</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17038787788198664</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="E35" t="n">
-        <v>0.051253894790050956</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03112612289345907</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="G35" t="n">
-        <v>0.32363830709414765</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="H35" t="n">
-        <v>0.10143731685145292</v>
+        <v>0.889626729571409</v>
       </c>
       <c r="I35" t="n">
-        <v>0.21788866818087707</v>
+        <v>0.889626729571409</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>13408.18935689429</v>
+        <v>0.13997954946056668</v>
       </c>
       <c r="C36" t="n">
-        <v>30495.70084974267</v>
+        <v>0.09928425707541311</v>
       </c>
       <c r="D36" t="n">
-        <v>73166.33301487628</v>
+        <v>0.16347630611405362</v>
       </c>
       <c r="E36" t="n">
-        <v>22170.710725580153</v>
+        <v>0.14125801994633247</v>
       </c>
       <c r="F36" t="n">
-        <v>10351.677907128163</v>
+        <v>0.02501571036011918</v>
       </c>
       <c r="G36" t="n">
-        <v>24606.635078040774</v>
+        <v>0.7301705828043505</v>
       </c>
       <c r="H36" t="n">
-        <v>58938.27021546221</v>
+        <v>0.29082423233018306</v>
       </c>
       <c r="I36" t="n">
-        <v>72477.15123548919</v>
+        <v>0.2946448347333481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8363369706971465</v>
+        <v>0.5781577121999348</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8363369706971465</v>
+        <v>0.6608503569168787</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8363369706971465</v>
+        <v>0.5724993460418882</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8363369706971465</v>
+        <v>0.23707008506908106</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8363369706971465</v>
+        <v>0.5691013660138229</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8363369706971465</v>
+        <v>3.3483448559115114</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8363369706971465</v>
+        <v>1.6774100750608891</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8363369706971465</v>
+        <v>1.0942858874135037</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.033345327574920994</v>
+        <v>0.040698776480897064</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04633851808283864</v>
+        <v>0.04571730699514374</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15860857857012964</v>
+        <v>0.17198017930135923</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04274974603628318</v>
+        <v>0.04903826323099594</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0412816731747898</v>
+        <v>0.0024816216578956527</v>
       </c>
       <c r="G39" t="n">
-        <v>0.21624965490956985</v>
+        <v>0.2761813596028341</v>
       </c>
       <c r="H39" t="n">
-        <v>0.26788504329522195</v>
+        <v>0.115507178286116</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1935414583562459</v>
+        <v>0.2983953144447583</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B40" t="n">
-        <v>11577.208872581848</v>
+        <v>386.32005513055753</v>
       </c>
       <c r="C40" t="n">
-        <v>29465.466885172744</v>
+        <v>14783.687669939838</v>
       </c>
       <c r="D40" t="n">
-        <v>65357.13513133532</v>
+        <v>6417.178972790428</v>
       </c>
       <c r="E40" t="n">
-        <v>19293.599345127797</v>
+        <v>6866.426955052516</v>
       </c>
       <c r="F40" t="n">
-        <v>6753.666725186897</v>
+        <v>10008.84601580158</v>
       </c>
       <c r="G40" t="n">
-        <v>17454.787549130462</v>
+        <v>-69515.48769400931</v>
       </c>
       <c r="H40" t="n">
-        <v>33826.31120558726</v>
+        <v>12710.180337538395</v>
       </c>
       <c r="I40" t="n">
-        <v>61712.62973760501</v>
+        <v>-39902.80684369127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="C41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="D41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="E41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="F41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="G41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="H41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
       <c r="I41" t="n">
-        <v>0.805501270285682</v>
+        <v>0.8382984465733944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>-0.976616764632501</v>
       </c>
       <c r="C42" t="n">
-        <v>10.0</v>
+        <v>-0.5947810254589918</v>
       </c>
       <c r="D42" t="n">
-        <v>10.0</v>
+        <v>-0.9262367440848912</v>
       </c>
       <c r="E42" t="n">
-        <v>10.0</v>
+        <v>-0.7377952456851788</v>
       </c>
       <c r="F42" t="n">
-        <v>10.0</v>
+        <v>-0.10875491006909799</v>
       </c>
       <c r="G42" t="n">
-        <v>10.0</v>
+        <v>-2.4043863255729034</v>
       </c>
       <c r="H42" t="n">
-        <v>10.0</v>
+        <v>-0.7963994549853116</v>
       </c>
       <c r="I42" t="n">
-        <v>10.0</v>
+        <v>-1.4097094679318132</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01621762693190679</v>
+        <v>0.9266387338494713</v>
       </c>
       <c r="C43" t="n">
-        <v>0.012227132438244748</v>
+        <v>0.4965917935649188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.10195009476709183</v>
+        <v>0.9256258898936159</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04962525122810837</v>
+        <v>0.7543127343159515</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0034978469791870858</v>
+        <v>0.08368954960192668</v>
       </c>
       <c r="G43" t="n">
-        <v>0.17316880081352629</v>
+        <v>2.722764840848799</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3996376334049757</v>
+        <v>0.6999385896425235</v>
       </c>
       <c r="I43" t="n">
-        <v>0.24367561343695923</v>
+        <v>1.6852048240414166</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>16074.264616289682</v>
+        <v>7.0</v>
       </c>
       <c r="C44" t="n">
-        <v>37152.530182849034</v>
+        <v>7.0</v>
       </c>
       <c r="D44" t="n">
-        <v>109852.8823275944</v>
+        <v>7.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23176.596099373513</v>
+        <v>7.0</v>
       </c>
       <c r="F44" t="n">
-        <v>12210.447957084165</v>
+        <v>7.0</v>
       </c>
       <c r="G44" t="n">
-        <v>44773.57458106512</v>
+        <v>7.0</v>
       </c>
       <c r="H44" t="n">
-        <v>46047.08508190708</v>
+        <v>7.0</v>
       </c>
       <c r="I44" t="n">
-        <v>87933.47309039123</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03446867646245328</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.09303238680233869</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.12402070714051501</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.027376286392212353</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.021494557034201552</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2708801239081433</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2623105065615936</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.16641675569854214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11106.209597458961</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18356.01045234036</v>
+      </c>
+      <c r="D46" t="n">
+        <v>59532.2659534778</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22532.018644615204</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8493.133239425251</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1351.3175241798624</v>
+      </c>
+      <c r="H46" t="n">
+        <v>23655.9446850868</v>
+      </c>
+      <c r="I46" t="n">
+        <v>57867.55367079424</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8756136246518957</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.3386478456274803</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.532635506470506</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.3135157450502293</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.127378130758385</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.3301506024276356</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.0246002894535007</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.713823897808457</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.32657481475267336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.814840176748522</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0491299688813212</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6723586118819893</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.44355334166219346</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6952459211256012</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.5375935680293717</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.528881224967816</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9523650861452907</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.041780670389015985</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.06030492847476611</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.17088453208743384</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.05233275560957684</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.030920263653010465</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.32787247856621643</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.10494160689000341</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2109627643299768</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14252.239469744547</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31089.342115683165</v>
+      </c>
+      <c r="D52" t="n">
+        <v>76892.41810196495</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23140.45489889099</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10839.032678866015</v>
+      </c>
+      <c r="G52" t="n">
+        <v>30776.475140407652</v>
+      </c>
+      <c r="H52" t="n">
+        <v>60485.93585705832</v>
+      </c>
+      <c r="I52" t="n">
+        <v>78542.31691800921</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8563927298554487</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.8752342239118069</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.8752342239118069</v>
+      <c r="B54" t="n">
+        <v>-0.17773881054490825</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.2029472281642235</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1924821048248968</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.11531704184994995</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.18375319288267455</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.5143023231597882</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.14547298781122775</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1977596110973644</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0072580824340542</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6904102144490982</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9311831953392511</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8973874710366044</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0072445443804436</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.017295211177895</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6149823316273334</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.169409449645523</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.034455109873159744</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.04126672763702135</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.15656615895137052</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.03892056508965813</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.038492660262025497</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2184484720025332</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2631939906249768</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2086563155592548</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11133.297330837002</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30060.443795981104</v>
+      </c>
+      <c r="D58" t="n">
+        <v>63265.58926561322</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19643.472843997424</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7058.787240618752</v>
+      </c>
+      <c r="G58" t="n">
+        <v>15945.70344165918</v>
+      </c>
+      <c r="H58" t="n">
+        <v>33966.12930614591</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56269.18026975561</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7114198284361016</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.355009115333354</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.23359309628652858</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.3802076031263004</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.2691402332241387</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5102893196246654</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.7508498432057391</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.6442601708632651</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.46418365680483364</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.899210967453726</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5002408018878699</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8498677952676995</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.69571151168923</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.2647425747074212</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.8594020302916499</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.5088678467877465</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.1679285921344715</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.017061768806054374</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.020713688834207187</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.09542450007145745</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.05192948441686423</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.004786055413237956</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1701424681866169</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.39951141480987035</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.24043061946169159</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15511.817431525535</v>
+      </c>
+      <c r="C64" t="n">
+        <v>35679.372003171105</v>
+      </c>
+      <c r="D64" t="n">
+        <v>105994.63028875887</v>
+      </c>
+      <c r="E64" t="n">
+        <v>21194.377183512966</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12170.111333627818</v>
+      </c>
+      <c r="G64" t="n">
+        <v>39381.937133726184</v>
+      </c>
+      <c r="H64" t="n">
+        <v>29261.231331393683</v>
+      </c>
+      <c r="I64" t="n">
+        <v>78847.27036330837</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.863316171473231</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.18231952134604712</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.14598241068465845</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.1271584552117262</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.31804052531130844</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.17900860862531398</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.4932576257910535</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.8035887202221733</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.41326466589205113</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4873582399286284</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.28261104028666156</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4971315363978692</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9965147183258983</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.180905403841687</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.3754431544213617</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.2055611895336877</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.3417182323114554</v>
       </c>
     </row>
   </sheetData>
@@ -2980,28 +4641,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.027374545806561724</v>
+        <v>0.027208905688849178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05394010342480296</v>
+        <v>0.05035972956429006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11054862183912359</v>
+        <v>0.11183536941033996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04128006630259683</v>
+        <v>0.048786299360159414</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01908363377131692</v>
+        <v>0.0257019973091788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24890312430351322</v>
+        <v>0.22034142782438704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2674125880857699</v>
+        <v>0.2919982153224381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.23145731646631496</v>
+        <v>0.22376805552035756</v>
       </c>
     </row>
     <row r="4">
@@ -3009,28 +4670,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>4620.655297021503</v>
+        <v>2086.460256193998</v>
       </c>
       <c r="C4" t="n">
-        <v>2706.058593320463</v>
+        <v>3533.6106087899793</v>
       </c>
       <c r="D4" t="n">
-        <v>-3491.2652337424215</v>
+        <v>-12146.91917546979</v>
       </c>
       <c r="E4" t="n">
-        <v>16913.897902741854</v>
+        <v>19687.46558313081</v>
       </c>
       <c r="F4" t="n">
-        <v>509.8181283275899</v>
+        <v>255.6516010090142</v>
       </c>
       <c r="G4" t="n">
-        <v>1504.8107676229752</v>
+        <v>1772.1029503592267</v>
       </c>
       <c r="H4" t="n">
-        <v>5588.914337765265</v>
+        <v>6307.0939813898985</v>
       </c>
       <c r="I4" t="n">
-        <v>-6286.6211332183575</v>
+        <v>-3859.590303470416</v>
       </c>
     </row>
     <row r="5">
@@ -3038,28 +4699,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6226016068619348</v>
+        <v>0.8238424937525841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8525662914577754</v>
+        <v>0.8568169132761986</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0028065381603672</v>
+        <v>1.1487488093380607</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21751702796142436</v>
+        <v>0.12472546579042933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8656027583753145</v>
+        <v>0.9157470934431137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7231812284187926</v>
+        <v>0.8483176445500451</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7519148099921553</v>
+        <v>0.8070136724812152</v>
       </c>
       <c r="I5" t="n">
-        <v>1.001335124169514</v>
+        <v>1.0215308835498775</v>
       </c>
     </row>
     <row r="6">
@@ -3067,28 +4728,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>-0.058918821870247884</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>-0.08032460793557383</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>-0.13225600989726038</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>-0.0775997145393088</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>-0.07377757952235331</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>-0.30017768376954046</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>-0.34597892999406654</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
+        <v>-0.2598043875900904</v>
       </c>
     </row>
     <row r="7">
@@ -3096,28 +4757,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02460479958878666</v>
+        <v>0.6415378723902234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05492157317511556</v>
+        <v>0.5596977608202268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13020451300375066</v>
+        <v>0.5778732611782271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07626780908828841</v>
+        <v>0.770051227935058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025717559593745193</v>
+        <v>0.92845965321937</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21505805582756185</v>
+        <v>2.2066913486427606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24573421597769693</v>
+        <v>1.7248418871778235</v>
       </c>
       <c r="I7" t="n">
-        <v>0.22749147374505468</v>
+        <v>1.285440234093471</v>
       </c>
     </row>
     <row r="8">
@@ -3125,28 +4786,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>3638.97066787398</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1109.4820665550487</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23510.655231772762</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5942.773825629909</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>932.4980002270204</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5541.238187850248</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>10608.356203647783</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>7854.089533672734</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -3154,86 +4815,86 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6271402895612495</v>
+        <v>0.02334336296360276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9148507726421616</v>
+        <v>0.05664570281008136</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49444220815392426</v>
+        <v>0.12349522101950552</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5833211393370921</v>
+        <v>0.07095509253668326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7373970452785981</v>
+        <v>0.03706426545158184</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5355849003750269</v>
+        <v>0.23078736267164943</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6182796223519537</v>
+        <v>0.23073713612261654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7379571110524012</v>
+        <v>0.2269718564242792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>2.0</v>
+        <v>3129.7240244874292</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>-545.9657065784527</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>22948.481823153405</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>5216.086384418507</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>833.115108929674</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>-1008.1984408103833</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>4315.219709085311</v>
       </c>
       <c r="I10" t="n">
-        <v>2.0</v>
+        <v>5549.802562509779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03644069714678757</v>
+        <v>0.6158573151082467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08475368984388076</v>
+        <v>0.9193833581543143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.13826047828930418</v>
+        <v>0.4433388067043239</v>
       </c>
       <c r="E11" t="n">
-        <v>0.047748009514081806</v>
+        <v>0.5201385089315722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0444229344317478</v>
+        <v>0.5482120950556468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.176367392683901</v>
+        <v>0.5635487079689929</v>
       </c>
       <c r="H11" t="n">
-        <v>0.36425207331781756</v>
+        <v>0.6500431244368929</v>
       </c>
       <c r="I11" t="n">
-        <v>0.10775472477247931</v>
+        <v>0.6593216019724822</v>
       </c>
     </row>
     <row r="12">
@@ -3241,28 +4902,28 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>4546.747348356609</v>
+        <v>-0.11257226445494761</v>
       </c>
       <c r="C12" t="n">
-        <v>4905.746283423705</v>
+        <v>-0.1474338620484299</v>
       </c>
       <c r="D12" t="n">
-        <v>24190.42451157469</v>
+        <v>-0.20535305571962914</v>
       </c>
       <c r="E12" t="n">
-        <v>19754.903840812396</v>
+        <v>-0.22912239384939637</v>
       </c>
       <c r="F12" t="n">
-        <v>1548.5549632158607</v>
+        <v>-0.31333831671910584</v>
       </c>
       <c r="G12" t="n">
-        <v>2189.575181322939</v>
+        <v>-0.6076978827322761</v>
       </c>
       <c r="H12" t="n">
-        <v>6790.431179677232</v>
+        <v>-0.4050933237028982</v>
       </c>
       <c r="I12" t="n">
-        <v>1169.4104185115862</v>
+        <v>-0.3841486455019235</v>
       </c>
     </row>
     <row r="13">
@@ -3270,956 +4931,1594 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6001084239529904</v>
+        <v>0.4948579818610228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7801895266869143</v>
+        <v>0.5321709109387228</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5492277892163653</v>
+        <v>0.6109452112339059</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01669779907150291</v>
+        <v>1.0322159633619286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6547815820221872</v>
+        <v>1.681073436505202</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8013315092310344</v>
+        <v>2.859977157745982</v>
       </c>
       <c r="H13" t="n">
-        <v>0.747048358959913</v>
+        <v>1.3743301684748825</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9637147044651914</v>
+        <v>1.386009252112011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>0.016169883641368645</v>
+        <v>0.03502878268869093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.036798392157578276</v>
+        <v>0.07965886267392105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07024016795512976</v>
+        <v>0.1288558096435959</v>
       </c>
       <c r="E15" t="n">
-        <v>0.027141813409538352</v>
+        <v>0.056872207574107415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03694786896990451</v>
+        <v>0.043903364367547555</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3220527345421396</v>
+        <v>0.18700181227398002</v>
       </c>
       <c r="H15" t="n">
-        <v>0.28375679689325933</v>
+        <v>0.3633236152257258</v>
       </c>
       <c r="I15" t="n">
-        <v>0.20689234243108146</v>
+        <v>0.1053555455524314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>3837.8488515388713</v>
+        <v>5137.5436164382745</v>
       </c>
       <c r="C16" t="n">
-        <v>3408.8367445283575</v>
+        <v>4314.708422252324</v>
       </c>
       <c r="D16" t="n">
-        <v>12574.704078123992</v>
+        <v>23096.079669920993</v>
       </c>
       <c r="E16" t="n">
-        <v>17330.805261672383</v>
+        <v>20316.480521317088</v>
       </c>
       <c r="F16" t="n">
-        <v>826.9536001079862</v>
+        <v>1379.1182478038752</v>
       </c>
       <c r="G16" t="n">
-        <v>3014.4933319691727</v>
+        <v>1855.2617420826155</v>
       </c>
       <c r="H16" t="n">
-        <v>7398.831061949493</v>
+        <v>7707.312504608323</v>
       </c>
       <c r="I16" t="n">
-        <v>-1670.5848635839532</v>
+        <v>2733.1186347267617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.642353501267953</v>
+        <v>0.548913118205032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8204867301401894</v>
+        <v>0.8046928862263591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7490471836029802</v>
+        <v>0.5723221302271352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.13720486196946005</v>
+        <v>-0.04413725524300047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.685119750634513</v>
+        <v>0.6893390410568282</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3600902472303128</v>
+        <v>0.8249954496104497</v>
       </c>
       <c r="H17" t="n">
-        <v>0.594173781035227</v>
+        <v>0.7289371613599772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9241885650571348</v>
+        <v>0.9278736329568859</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>4.0</v>
+        <v>-0.05881136774179685</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>-0.10519811494070463</v>
       </c>
       <c r="D18" t="n">
-        <v>4.0</v>
+        <v>-0.13887184799606256</v>
       </c>
       <c r="E18" t="n">
-        <v>4.0</v>
+        <v>-0.06766051555730279</v>
       </c>
       <c r="F18" t="n">
-        <v>4.0</v>
+        <v>-0.1044928019265875</v>
       </c>
       <c r="G18" t="n">
-        <v>4.0</v>
+        <v>-0.24393684035192964</v>
       </c>
       <c r="H18" t="n">
-        <v>4.0</v>
+        <v>-0.3962789812288289</v>
       </c>
       <c r="I18" t="n">
-        <v>4.0</v>
+        <v>-0.11435944169555123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02341805937686707</v>
+        <v>0.6957290446038188</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08599894135598513</v>
+        <v>0.7534059830537145</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08617074315455607</v>
+        <v>0.6024053558131038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.016874466785577514</v>
+        <v>0.7389652809260818</v>
       </c>
       <c r="F19" t="n">
-        <v>0.031213609237287936</v>
+        <v>1.953909057861831</v>
       </c>
       <c r="G19" t="n">
-        <v>0.29650238120665257</v>
+        <v>2.825535577514167</v>
       </c>
       <c r="H19" t="n">
-        <v>0.23916824469408302</v>
+        <v>2.267110269780625</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2206535541889908</v>
+        <v>0.6544066810648096</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>5238.7156094793845</v>
+        <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4756.709888630033</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>20001.46035652836</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>10204.855436088075</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
-        <v>447.11128328149545</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3623.6724100842725</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
-        <v>7081.271732020017</v>
+        <v>3.0</v>
       </c>
       <c r="I20" t="n">
-        <v>776.6395839060635</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5679958141517444</v>
+        <v>0.016099638323029387</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7528814119895291</v>
+        <v>0.03384879342957285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6536388469941811</v>
+        <v>0.065324178222833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5289469547359359</v>
+        <v>0.03433685668685957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8258379764141628</v>
+        <v>0.039488839801277834</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5237670311362727</v>
+        <v>0.3239999971367305</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7147116458004216</v>
+        <v>0.2770652118390765</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8899962792926774</v>
+        <v>0.2098364845606203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>5.0</v>
+        <v>4470.967912182544</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>3570.586781139526</v>
       </c>
       <c r="D22" t="n">
-        <v>5.0</v>
+        <v>11385.410103078248</v>
       </c>
       <c r="E22" t="n">
-        <v>5.0</v>
+        <v>17347.11501474032</v>
       </c>
       <c r="F22" t="n">
-        <v>5.0</v>
+        <v>505.4064354904609</v>
       </c>
       <c r="G22" t="n">
-        <v>5.0</v>
+        <v>146.77510992909757</v>
       </c>
       <c r="H22" t="n">
-        <v>5.0</v>
+        <v>5237.619873734369</v>
       </c>
       <c r="I22" t="n">
-        <v>5.0</v>
+        <v>-3306.2265047746364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02398909669034986</v>
+        <v>0.5758107454043658</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04173836312193672</v>
+        <v>0.8035156757231884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.11931101226025342</v>
+        <v>0.7613898489543431</v>
       </c>
       <c r="E23" t="n">
-        <v>0.029129065389763197</v>
+        <v>0.11286633677386403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01919372197118668</v>
+        <v>0.6718429470059123</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2734201766701722</v>
+        <v>0.361487699606534</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25288336331551453</v>
+        <v>0.5951091607169987</v>
       </c>
       <c r="I23" t="n">
-        <v>0.24033520058082336</v>
+        <v>0.919633490058151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>3679.9139152467824</v>
+        <v>-0.06911700169465196</v>
       </c>
       <c r="C24" t="n">
-        <v>4650.099800003431</v>
+        <v>-0.0903033381175673</v>
       </c>
       <c r="D24" t="n">
-        <v>31992.44608544065</v>
+        <v>-0.10692501151521383</v>
       </c>
       <c r="E24" t="n">
-        <v>20556.376766962094</v>
+        <v>-0.0941424619301593</v>
       </c>
       <c r="F24" t="n">
-        <v>373.7684467070701</v>
+        <v>-0.27027862869583497</v>
       </c>
       <c r="G24" t="n">
-        <v>27733.927098690634</v>
+        <v>-0.750944379133238</v>
       </c>
       <c r="H24" t="n">
-        <v>17326.220668875216</v>
+        <v>-0.46707430369939884</v>
       </c>
       <c r="I24" t="n">
-        <v>13644.927029819182</v>
+        <v>-0.33595103086188594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7889830585150306</v>
+        <v>0.34135838348019</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8849884335098771</v>
+        <v>0.3427110790659584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5970491253117702</v>
+        <v>0.30850779228084835</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16388716597530023</v>
+        <v>0.44613656523065526</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0003191860743543</v>
+        <v>1.6342565126221194</v>
       </c>
       <c r="G25" t="n">
-        <v>0.29940852202303114</v>
+        <v>4.251145075994845</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7898704253130361</v>
+        <v>1.7910415889669509</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9117675632099806</v>
+        <v>1.2569058972346379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>0.035522821572825033</v>
+        <v>0.023082327249424866</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06467377187699708</v>
+        <v>0.08699692204854984</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14179920110769245</v>
+        <v>0.10301767636415345</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07144302487791086</v>
+        <v>0.01926024706175789</v>
       </c>
       <c r="F27" t="n">
-        <v>0.022219800842125943</v>
+        <v>0.03236986581335125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.29639990042141806</v>
+        <v>0.2893969663154784</v>
       </c>
       <c r="H27" t="n">
-        <v>0.12252607521711055</v>
+        <v>0.23891961267664935</v>
       </c>
       <c r="I27" t="n">
-        <v>0.24541540408392012</v>
+        <v>0.2069563824706349</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>7970.922020397716</v>
+        <v>6214.379880610145</v>
       </c>
       <c r="C28" t="n">
-        <v>398.4805631472735</v>
+        <v>5742.386997475646</v>
       </c>
       <c r="D28" t="n">
-        <v>21904.27027191127</v>
+        <v>18528.056700300436</v>
       </c>
       <c r="E28" t="n">
-        <v>10504.028523222672</v>
+        <v>12024.932821216042</v>
       </c>
       <c r="F28" t="n">
-        <v>13.06408081598188</v>
+        <v>934.6998610629703</v>
       </c>
       <c r="G28" t="n">
-        <v>10752.251696705502</v>
+        <v>9788.974530514995</v>
       </c>
       <c r="H28" t="n">
-        <v>10167.041328742836</v>
+        <v>15099.61719830781</v>
       </c>
       <c r="I28" t="n">
-        <v>10585.174655823474</v>
+        <v>6977.138838234495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>0.49030113436795864</v>
+        <v>0.5286484978019271</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9751744221021902</v>
+        <v>0.7813849535000716</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6943213039494629</v>
+        <v>0.702871679504192</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5750178518432306</v>
+        <v>0.46592288517771324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9854226775155883</v>
+        <v>0.8451154757810189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6671753460425758</v>
+        <v>0.516756059410972</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8115807177098362</v>
+        <v>0.6402826691295803</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8444252893162357</v>
+        <v>0.8589123803748258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>7.0</v>
+        <v>-0.03711071236436825</v>
       </c>
       <c r="C30" t="n">
-        <v>7.0</v>
+        <v>-0.11057253650563148</v>
       </c>
       <c r="D30" t="n">
-        <v>7.0</v>
+        <v>-0.11291741740580075</v>
       </c>
       <c r="E30" t="n">
-        <v>7.0</v>
+        <v>-0.019346582124370237</v>
       </c>
       <c r="F30" t="n">
-        <v>7.0</v>
+        <v>-0.0693813830300074</v>
       </c>
       <c r="G30" t="n">
-        <v>7.0</v>
+        <v>-0.3531717664137839</v>
       </c>
       <c r="H30" t="n">
-        <v>7.0</v>
+        <v>-0.26138729908543856</v>
       </c>
       <c r="I30" t="n">
-        <v>7.0</v>
+        <v>-0.22283860166688862</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03356061531320644</v>
+        <v>0.5091093424838488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09070110480337105</v>
+        <v>0.9018963104901233</v>
       </c>
       <c r="D31" t="n">
-        <v>0.10229924930700929</v>
+        <v>0.5119278793771989</v>
       </c>
       <c r="E31" t="n">
-        <v>0.034345303640770285</v>
+        <v>0.27347704269532386</v>
       </c>
       <c r="F31" t="n">
-        <v>0.023850323625274766</v>
+        <v>1.1785959843699787</v>
       </c>
       <c r="G31" t="n">
-        <v>0.29698533063698995</v>
+        <v>3.47839218702112</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2615680206176483</v>
+        <v>1.4507638209427178</v>
       </c>
       <c r="I31" t="n">
-        <v>0.15669005205572992</v>
+        <v>1.2197259443500719</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>6051.457131987554</v>
+        <v>5.0</v>
       </c>
       <c r="C32" t="n">
-        <v>5564.470167454449</v>
+        <v>5.0</v>
       </c>
       <c r="D32" t="n">
-        <v>16174.531289593302</v>
+        <v>5.0</v>
       </c>
       <c r="E32" t="n">
-        <v>10688.28359992715</v>
+        <v>5.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1710.608532918913</v>
+        <v>5.0</v>
       </c>
       <c r="G32" t="n">
-        <v>13953.892595606756</v>
+        <v>5.0</v>
       </c>
       <c r="H32" t="n">
-        <v>6784.436185402334</v>
+        <v>5.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1969.1625864449777</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5652641733012387</v>
+        <v>0.03368928674230419</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7568546706871752</v>
+        <v>0.05203025386320303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7473015239959659</v>
+        <v>0.12297828907220565</v>
       </c>
       <c r="E33" t="n">
-        <v>0.530848059928805</v>
+        <v>0.045678728021024184</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7847034311627124</v>
+        <v>0.019147068608237606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4184414913871592</v>
+        <v>0.2767354478875432</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7713376167605975</v>
+        <v>0.21902641403659776</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9258864720287224</v>
+        <v>0.2307145117688844</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>3959.6494305244023</v>
       </c>
       <c r="C34" t="n">
-        <v>8.0</v>
+        <v>3348.064170298603</v>
       </c>
       <c r="D34" t="n">
-        <v>8.0</v>
+        <v>29012.07219042489</v>
       </c>
       <c r="E34" t="n">
-        <v>8.0</v>
+        <v>23795.917950802956</v>
       </c>
       <c r="F34" t="n">
-        <v>8.0</v>
+        <v>398.32486581998313</v>
       </c>
       <c r="G34" t="n">
-        <v>8.0</v>
+        <v>19354.959414460394</v>
       </c>
       <c r="H34" t="n">
-        <v>8.0</v>
+        <v>8857.599941586466</v>
       </c>
       <c r="I34" t="n">
-        <v>8.0</v>
+        <v>1808.1907722782703</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04494729372632146</v>
+        <v>0.7145401050442198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.054581810309866245</v>
+        <v>0.8791184497904901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17947042282059375</v>
+        <v>0.584109442766863</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05482871816925087</v>
+        <v>-0.01726850136876632</v>
       </c>
       <c r="F35" t="n">
-        <v>0.042150687150312977</v>
+        <v>0.9292596984528028</v>
       </c>
       <c r="G35" t="n">
-        <v>0.30726815193709145</v>
+        <v>0.30002330913584313</v>
       </c>
       <c r="H35" t="n">
-        <v>0.10359520524086571</v>
+        <v>0.8137363272109327</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2131577106456976</v>
+        <v>0.9816043287936707</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>-1467.8724805449049</v>
+        <v>-0.04841498293677993</v>
       </c>
       <c r="C36" t="n">
-        <v>5232.426851028235</v>
+        <v>-0.06657116356359305</v>
       </c>
       <c r="D36" t="n">
-        <v>28368.961896482346</v>
+        <v>-0.12254322981445598</v>
       </c>
       <c r="E36" t="n">
-        <v>23701.753134657727</v>
+        <v>-0.047037654417940056</v>
       </c>
       <c r="F36" t="n">
-        <v>-1353.7448171506098</v>
+        <v>-0.03981342638477614</v>
       </c>
       <c r="G36" t="n">
-        <v>16787.76247534179</v>
+        <v>-0.2984332842709586</v>
       </c>
       <c r="H36" t="n">
-        <v>13011.506119333573</v>
+        <v>-0.22841490497415784</v>
       </c>
       <c r="I36" t="n">
-        <v>2903.708875881705</v>
+        <v>-0.23379549156796486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>1.001290789481898</v>
+        <v>0.7555782416514671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8029533100900011</v>
+        <v>0.5507550475444695</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5737794354939116</v>
+        <v>0.6326512197666347</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02505236876403823</v>
+        <v>0.6868956875779936</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9868205075985875</v>
+        <v>0.6893837381372049</v>
       </c>
       <c r="G37" t="n">
-        <v>0.39086653559353707</v>
+        <v>3.113822833910554</v>
       </c>
       <c r="H37" t="n">
-        <v>0.754142078664638</v>
+        <v>1.3216469711640537</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8999067704613786</v>
+        <v>1.3056144326164996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03503983829633212</v>
+        <v>0.03647366452225712</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03325974657937655</v>
+        <v>0.0624338810031178</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13329620239541376</v>
+        <v>0.14545919348721112</v>
       </c>
       <c r="E39" t="n">
-        <v>0.029321611833745417</v>
+        <v>0.07645322109428168</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05288561705421782</v>
+        <v>0.02067029214513398</v>
       </c>
       <c r="G39" t="n">
-        <v>0.23001809141014362</v>
+        <v>0.29236103947906666</v>
       </c>
       <c r="H39" t="n">
-        <v>0.25526885067035177</v>
+        <v>0.11908085943981395</v>
       </c>
       <c r="I39" t="n">
-        <v>0.23091004176041896</v>
+        <v>0.24706784882911764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>5661.580838149466</v>
+        <v>7624.452770760346</v>
       </c>
       <c r="C40" t="n">
-        <v>5219.609831097301</v>
+        <v>303.8307443661912</v>
       </c>
       <c r="D40" t="n">
-        <v>-787.3957959680351</v>
+        <v>27579.25978225684</v>
       </c>
       <c r="E40" t="n">
-        <v>24052.910016177255</v>
+        <v>12221.014755225564</v>
       </c>
       <c r="F40" t="n">
-        <v>1115.467803373604</v>
+        <v>292.49901056906873</v>
       </c>
       <c r="G40" t="n">
-        <v>2660.734695395973</v>
+        <v>12700.363165563238</v>
       </c>
       <c r="H40" t="n">
-        <v>9553.853619179858</v>
+        <v>10824.064939341606</v>
       </c>
       <c r="I40" t="n">
-        <v>-6527.438522873163</v>
+        <v>12650.994872015113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.41684134781913723</v>
+        <v>0.5149822887142326</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7517833824137076</v>
+        <v>0.9796379014513241</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8261644186175099</v>
+        <v>0.6231998747540962</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.06852807779440151</v>
+        <v>0.5146162111333523</v>
       </c>
       <c r="F41" t="n">
-        <v>0.43733600803923106</v>
+        <v>0.9614935693293862</v>
       </c>
       <c r="G41" t="n">
-        <v>0.42390752144765503</v>
+        <v>0.6331440538069772</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4817781171345389</v>
+        <v>0.8031933475482046</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7792698306328388</v>
+        <v>0.8225733066788402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>-0.0415509876087623</v>
       </c>
       <c r="C42" t="n">
-        <v>10.0</v>
+        <v>-0.07137598359322483</v>
       </c>
       <c r="D42" t="n">
-        <v>10.0</v>
+        <v>-0.14203902333144236</v>
       </c>
       <c r="E42" t="n">
-        <v>10.0</v>
+        <v>-0.07641984145792657</v>
       </c>
       <c r="F42" t="n">
-        <v>10.0</v>
+        <v>-0.025781444992579283</v>
       </c>
       <c r="G42" t="n">
-        <v>10.0</v>
+        <v>-0.3052538190392994</v>
       </c>
       <c r="H42" t="n">
-        <v>10.0</v>
+        <v>-0.1192531057560503</v>
       </c>
       <c r="I42" t="n">
-        <v>10.0</v>
+        <v>-0.24652128301341913</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01872381739020509</v>
+        <v>0.8304404513884728</v>
       </c>
       <c r="C43" t="n">
-        <v>0.012794516058178142</v>
+        <v>0.6781710250310754</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07482164952525759</v>
+        <v>0.782885539262508</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03553472236337707</v>
+        <v>1.1760130651290677</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005401482371006577</v>
+        <v>0.6970794416879013</v>
       </c>
       <c r="G43" t="n">
-        <v>0.14232080480549653</v>
+        <v>2.8822740255618684</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4532283207660801</v>
+        <v>0.721594017328199</v>
       </c>
       <c r="I43" t="n">
-        <v>0.25717468672039884</v>
+        <v>1.395329988633065</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>3179.9664830984575</v>
+        <v>7.0</v>
       </c>
       <c r="C44" t="n">
-        <v>6141.7100479493565</v>
+        <v>7.0</v>
       </c>
       <c r="D44" t="n">
-        <v>9174.55637856357</v>
+        <v>7.0</v>
       </c>
       <c r="E44" t="n">
-        <v>19642.828030759218</v>
+        <v>7.0</v>
       </c>
       <c r="F44" t="n">
-        <v>-483.43585042351026</v>
+        <v>7.0</v>
       </c>
       <c r="G44" t="n">
-        <v>33993.21364539127</v>
+        <v>7.0</v>
       </c>
       <c r="H44" t="n">
-        <v>51676.10467108137</v>
+        <v>7.0</v>
       </c>
       <c r="I44" t="n">
-        <v>7117.740232950781</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03443765340476892</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.09270179664844168</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.09678818559289822</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.033482024214129574</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.024138388453547256</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.29355345625171014</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2571960273284539</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.16770246810605036</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5237.340129528817</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5601.208981067921</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18883.866838255843</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11767.48883034379</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1782.738145173399</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15115.358369458354</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7253.247797864804</v>
+      </c>
+      <c r="I46" t="n">
+        <v>678.4623226126193</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6141666914705102</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.755766944667011</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.716958616391286</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4944669138656148</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7808450290544842</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4062792704537296</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.771656466508447</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.941006297036793</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.09531862540664526</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.17081127658951478</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.12845925995367102</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.07014577812385892</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.09072753792242616</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.44554514014774904</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.3396976014214935</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.216393535566488</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8141067910661812</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0454018904154065</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5247218114801274</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5424791190822831</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7807611986686115</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.7499963884752825</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.499071396236465</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.959722924618916</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.04415230289967044</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.053468033539577305</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1781850642990696</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.05018187600300043</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.04299184198075208</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.31529630236665285</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.10104317101428746</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2146814078969899</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-3202.901319936071</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5278.584562388863</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25518.43582298913</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24726.52108280842</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2113.2064694142864</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11507.381803058852</v>
+      </c>
+      <c r="H52" t="n">
+        <v>12056.982262283009</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1265.1045839508565</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.0661400117797606</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7763992657726221</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5709381091766552</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.09436947859209781</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9866083619660289</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.38769736691632223</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.745746677538064</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.907527957821293</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.163196328195656</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.12596569994640205</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.26700867746724544</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.14198798361159326</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.20688210352521286</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.5516388335390998</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.15626070051911578</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.307193062975205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0644339485146543</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6121369751342586</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9709652214212245</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8605047885145972</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.400482828152164</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.9015610806774936</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.5921365866878606</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.1900226462015122</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.03400810122792259</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02609820769391799</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1449152706920164</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.03743244473442329</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.047850583588633616</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.23724855351717347</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2361401202751813</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.23630671827073124</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.7640367379237183</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.825719842243171</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8840463806708034</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.2553907913235554</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.9867544014511461</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3363392067983219</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.12287099401406276</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.7907839422929389</v>
+      <c r="B58" t="n">
+        <v>2906.9873024419126</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5044.0961062748975</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-12239.246212617029</v>
+      </c>
+      <c r="E58" t="n">
+        <v>24560.80968695039</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1759.0982294671592</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-7770.618437060755</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12251.635949097345</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-8108.207917443423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.559999081362225</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7673526328172887</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9185547625882949</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.14225326864447552</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.39078815749506296</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5550795325461999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.4366915243842681</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7565005280725491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.2911207368486659</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.12116515046052134</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.34263824128616915</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.22180681751974507</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5039932313106843</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.6957902953782189</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.5353789972185959</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.5019135527394293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.887544916240318</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.31636597065499855</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7866247880673817</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6691111152270767</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.5722132447375996</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.019425624952295</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.3537704032441515</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.3226983906148582</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.021347112525730134</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.007069131978178224</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.08528018510091052</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.031282332868950984</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.002103856394761455</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.13676604737524037</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.4658438257494147</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.2503075080068137</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1922.6052934778659</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8133.884026395204</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2366.557738528261</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22902.27440423645</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-443.75723766337137</v>
+      </c>
+      <c r="G64" t="n">
+        <v>34448.82801313671</v>
+      </c>
+      <c r="H64" t="n">
+        <v>52102.704053255664</v>
+      </c>
+      <c r="I64" t="n">
+        <v>977.4705954193189</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7957152302058097</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.780566951447976</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9199728745578758</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.13178681090181368</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9968025979303824</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.28980433726660565</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.004463233561912924</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8006589120774458</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.11985850644944829</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.025930595556719283</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.14427155271204617</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.11929347149211578</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.021559616737005904</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.2900223945302659</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.6865187954292469</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.39835664624893696</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6097662737292784</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.09644900810605035</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.44428285620320784</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.600300686161946</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.07952247892210391</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.1056259241121007</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.5717589644986005</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.396836010026993</v>
       </c>
     </row>
   </sheetData>
@@ -4296,57 +6595,57 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0193014479341383</v>
+        <v>0.02466195289062439</v>
       </c>
       <c r="C3" t="n">
-        <v>1.7404198312616349E-6</v>
+        <v>1.0217707466833755E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12095409294892866</v>
+        <v>0.09775004692316488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04153789641844749</v>
+        <v>0.03701688624731711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02275609451608736</v>
+        <v>0.027693369624738146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.16304101475042546</v>
+        <v>0.1819549169697281</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3263148860021663</v>
+        <v>0.3479135888997975</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3060928270099752</v>
+        <v>0.2829070613699616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
-        <v>14046.686448737108</v>
+        <v>13984.216163912766</v>
       </c>
       <c r="C4" t="n">
-        <v>33048.67476722774</v>
+        <v>32882.07116708286</v>
       </c>
       <c r="D4" t="n">
-        <v>66664.26893973749</v>
+        <v>69269.47292027196</v>
       </c>
       <c r="E4" t="n">
-        <v>21554.644951807863</v>
+        <v>22273.516605963807</v>
       </c>
       <c r="F4" t="n">
-        <v>9232.181557637123</v>
+        <v>9314.183130200432</v>
       </c>
       <c r="G4" t="n">
-        <v>27636.66050702713</v>
+        <v>28928.139771273563</v>
       </c>
       <c r="H4" t="n">
-        <v>42897.512874035434</v>
+        <v>45863.47615396497</v>
       </c>
       <c r="I4" t="n">
-        <v>51444.174956938645</v>
+        <v>56087.9182764461</v>
       </c>
     </row>
     <row r="5">
@@ -4354,28 +6653,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>-0.07143822282909895</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.006767178498749971</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>-0.13213274215922244</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>-0.07914215760468668</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>-0.0977356649152683</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>-0.30090580628456975</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>-0.449881574574447</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0</v>
+        <v>-0.3761919431033375</v>
       </c>
     </row>
     <row r="6">
@@ -4383,840 +6682,1478 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03764427725891801</v>
+        <v>0.5814852301437147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07966124241177122</v>
+        <v>0.0011355954528314565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.113557437369795</v>
+        <v>0.5050918926064851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04981571452304107</v>
+        <v>0.5842808141409674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03322646563226783</v>
+        <v>1.0003960411698345</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2004601234194463</v>
+        <v>1.8222553293070356</v>
       </c>
       <c r="H6" t="n">
-        <v>0.33513911784519745</v>
+        <v>2.05513561303819</v>
       </c>
       <c r="I6" t="n">
-        <v>0.150495621539563</v>
+        <v>1.6251654792657164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>8831.47276810785</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>20980.37300429997</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>42971.864804975005</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13732.42605682874</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3362.506949970906</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>7646.761103525352</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>19361.61693982472</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>31883.84624420555</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>0.029991295837097892</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>0.031802489310425335</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0</v>
+        <v>0.15689450905057029</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>0.07839894914648275</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>0.002236910169813441</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>0.190910172292219</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>0.24629815564269064</v>
       </c>
       <c r="I8" t="n">
-        <v>2.0</v>
+        <v>0.2634675185507006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03344701910927165</v>
+        <v>6040.558333635266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.049827370184113984</v>
+        <v>19972.936606709613</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09189770894575688</v>
+        <v>23415.18375093727</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03661124489878198</v>
+        <v>3578.8828404800206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05491877619497982</v>
+        <v>4808.506654747809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.18908596018742557</v>
+        <v>-11111.010800895001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3585223950123777</v>
+        <v>186.17684413849335</v>
       </c>
       <c r="I9" t="n">
-        <v>0.18568952546729237</v>
+        <v>-90.45800160113384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>10832.108299529376</v>
+        <v>-0.45541906442287083</v>
       </c>
       <c r="C10" t="n">
-        <v>24558.306587445368</v>
+        <v>-0.23998807359096985</v>
       </c>
       <c r="D10" t="n">
-        <v>51197.60992710299</v>
+        <v>-0.601481019929207</v>
       </c>
       <c r="E10" t="n">
-        <v>18043.551137449133</v>
+        <v>-0.8018349276802668</v>
       </c>
       <c r="F10" t="n">
-        <v>3213.586338071507</v>
+        <v>-0.08873470346482282</v>
       </c>
       <c r="G10" t="n">
-        <v>7901.685300691501</v>
+        <v>-1.4989759876315116</v>
       </c>
       <c r="H10" t="n">
-        <v>22236.698472052147</v>
+        <v>-0.9960481533540303</v>
       </c>
       <c r="I10" t="n">
-        <v>33675.05964654606</v>
+        <v>-1.0016679065076544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>0.6357880890805703</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>0.29877570348435994</v>
       </c>
       <c r="D11" t="n">
-        <v>3.0</v>
+        <v>0.7761753708526172</v>
       </c>
       <c r="E11" t="n">
-        <v>3.0</v>
+        <v>1.1405051269288682</v>
       </c>
       <c r="F11" t="n">
-        <v>3.0</v>
+        <v>0.10145648970796554</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>2.3658086197462675</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>1.4670156327137192</v>
       </c>
       <c r="I11" t="n">
-        <v>3.0</v>
+        <v>1.6088709150779184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>0.012638958138153956</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.012987326883382087</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27339203954131774</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004458325411473215</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.4008452650064134E-5</v>
+        <v>2.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22956360041751217</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.14084007068867269</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.32606567046683804</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>8168.26398987014</v>
+        <v>0.03857694714822575</v>
       </c>
       <c r="C13" t="n">
-        <v>22367.57507295381</v>
+        <v>0.03883993280615345</v>
       </c>
       <c r="D13" t="n">
-        <v>-36560.77821620954</v>
+        <v>0.08878441762423814</v>
       </c>
       <c r="E13" t="n">
-        <v>19465.078248179845</v>
+        <v>0.04750113781776467</v>
       </c>
       <c r="F13" t="n">
-        <v>6490.2921176883765</v>
+        <v>0.02041617009277578</v>
       </c>
       <c r="G13" t="n">
-        <v>-52600.19486176024</v>
+        <v>0.20786259890099</v>
       </c>
       <c r="H13" t="n">
-        <v>-4379.21277771553</v>
+        <v>0.2559808473354083</v>
       </c>
       <c r="I13" t="n">
-        <v>-56388.90055521034</v>
+        <v>0.30203794827444386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B14" t="n">
-        <v>4.0</v>
+        <v>4964.58656791089</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>18885.212148500817</v>
       </c>
       <c r="D14" t="n">
-        <v>4.0</v>
+        <v>37718.93814089117</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>10433.544797701756</v>
       </c>
       <c r="F14" t="n">
-        <v>4.0</v>
+        <v>1566.4229056456609</v>
       </c>
       <c r="G14" t="n">
-        <v>4.0</v>
+        <v>-21947.938857939465</v>
       </c>
       <c r="H14" t="n">
-        <v>4.0</v>
+        <v>-7787.39009085116</v>
       </c>
       <c r="I14" t="n">
-        <v>4.0</v>
+        <v>-13013.386408374043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.020225209698995338</v>
+        <v>-0.6064106148105557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.015838437821503716</v>
+        <v>-0.31988709426688644</v>
       </c>
       <c r="D15" t="n">
-        <v>0.12960678364096037</v>
+        <v>-0.3791010420854376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03336028454776061</v>
+        <v>-0.49498058846708604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.010076597814818034</v>
+        <v>-0.7291859633328325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.179578368808769</v>
+        <v>-2.114207626753439</v>
       </c>
       <c r="H15" t="n">
-        <v>0.28555530131319323</v>
+        <v>-1.1618804591531928</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3257590163539997</v>
+        <v>-1.2190227646895315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>13254.291193635694</v>
+        <v>0.7662014070455305</v>
       </c>
       <c r="C16" t="n">
-        <v>30148.027521003238</v>
+        <v>0.3673444080835491</v>
       </c>
       <c r="D16" t="n">
-        <v>61563.58654011242</v>
+        <v>0.41507021559618545</v>
       </c>
       <c r="E16" t="n">
-        <v>21657.51990456737</v>
+        <v>0.617202903651554</v>
       </c>
       <c r="F16" t="n">
-        <v>8417.011772341371</v>
+        <v>0.9086169191309006</v>
       </c>
       <c r="G16" t="n">
-        <v>20233.547059600765</v>
+        <v>3.140735168752299</v>
       </c>
       <c r="H16" t="n">
-        <v>39607.44529862757</v>
+        <v>1.5972999924618132</v>
       </c>
       <c r="I16" t="n">
-        <v>46161.90697147005</v>
+        <v>1.876082082338398</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03492228625300248</v>
+        <v>0.016267411730504625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01367516981745646</v>
+        <v>0.02100156465106796</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20257732045497795</v>
+        <v>0.2776372223329399</v>
       </c>
       <c r="E18" t="n">
-        <v>0.020011457212106627</v>
+        <v>0.003664069002618128</v>
       </c>
       <c r="F18" t="n">
-        <v>2.385723923586854E-4</v>
+        <v>2.0414780654862954E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1781016353930817</v>
+        <v>0.22461245815114103</v>
       </c>
       <c r="H18" t="n">
-        <v>0.20569570522977385</v>
+        <v>0.14390075935796903</v>
       </c>
       <c r="I18" t="n">
-        <v>0.34477785324724225</v>
+        <v>0.31271236696721066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B19" t="n">
-        <v>10358.876104572286</v>
+        <v>6361.367451043751</v>
       </c>
       <c r="C19" t="n">
-        <v>31132.696837792377</v>
+        <v>18739.76444268485</v>
       </c>
       <c r="D19" t="n">
-        <v>40733.99076791686</v>
+        <v>-48205.299162523515</v>
       </c>
       <c r="E19" t="n">
-        <v>20658.806978313256</v>
+        <v>19654.199974408257</v>
       </c>
       <c r="F19" t="n">
-        <v>9613.101281638728</v>
+        <v>6415.408475432855</v>
       </c>
       <c r="G19" t="n">
-        <v>6343.975778474957</v>
+        <v>-58803.81821795526</v>
       </c>
       <c r="H19" t="n">
-        <v>26766.876011481374</v>
+        <v>-9993.17958455837</v>
       </c>
       <c r="I19" t="n">
-        <v>18340.49202962248</v>
+        <v>-62515.40673939478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>-0.48427477980363653</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>-0.31108562075884283</v>
       </c>
       <c r="D20" t="n">
-        <v>6.0</v>
+        <v>-1.594926817456333</v>
       </c>
       <c r="E20" t="n">
-        <v>6.0</v>
+        <v>-0.06841620311830521</v>
       </c>
       <c r="F20" t="n">
-        <v>6.0</v>
+        <v>-0.014489638330064891</v>
       </c>
       <c r="G20" t="n">
-        <v>6.0</v>
+        <v>-3.375570223572816</v>
       </c>
       <c r="H20" t="n">
-        <v>6.0</v>
+        <v>-1.231823013128398</v>
       </c>
       <c r="I20" t="n">
-        <v>6.0</v>
+        <v>-1.9353838245631492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>0.028553617051096988</v>
+        <v>0.34491565961382764</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003568432667807259</v>
+        <v>0.21263590676034963</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2713429236405824</v>
+        <v>1.311202817197992</v>
       </c>
       <c r="E21" t="n">
-        <v>0.10266508483364442</v>
+        <v>0.047607012328002095</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0029714832947940716</v>
+        <v>0.008448713207796556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19323048504678306</v>
+        <v>2.947099240477348</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06342980972619403</v>
+        <v>0.930222321969971</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3342381637390978</v>
+        <v>1.8731252527524107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
-        <v>7441.758749671393</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n">
-        <v>33967.02446838291</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-14893.36691072135</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>-7741.418549246381</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="n">
-        <v>10266.459127161814</v>
+        <v>4.0</v>
       </c>
       <c r="G22" t="n">
-        <v>-19406.146833665338</v>
+        <v>4.0</v>
       </c>
       <c r="H22" t="n">
-        <v>37944.57455082056</v>
+        <v>4.0</v>
       </c>
       <c r="I22" t="n">
-        <v>-28980.431996364652</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>0.019918749041573966</v>
       </c>
       <c r="C23" t="n">
-        <v>7.0</v>
+        <v>0.035341313273880126</v>
       </c>
       <c r="D23" t="n">
-        <v>7.0</v>
+        <v>0.12719685470181516</v>
       </c>
       <c r="E23" t="n">
-        <v>7.0</v>
+        <v>0.035067183536690416</v>
       </c>
       <c r="F23" t="n">
-        <v>7.0</v>
+        <v>0.023248304320623827</v>
       </c>
       <c r="G23" t="n">
-        <v>7.0</v>
+        <v>0.22333757983701574</v>
       </c>
       <c r="H23" t="n">
-        <v>7.0</v>
+        <v>0.23573762387212913</v>
       </c>
       <c r="I23" t="n">
-        <v>7.0</v>
+        <v>0.30015239141627165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B24" t="n">
-        <v>0.022781947100394762</v>
+        <v>10284.182823380168</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0364830985756179</v>
+        <v>24134.656678906715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16503370492799072</v>
+        <v>41704.5216696755</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07113527018107105</v>
+        <v>16333.191140814864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04065376892454504</v>
+        <v>4548.63258623539</v>
       </c>
       <c r="G24" t="n">
-        <v>0.15937747840330643</v>
+        <v>-12490.89730338335</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22458308650793812</v>
+        <v>9604.254345951022</v>
       </c>
       <c r="I24" t="n">
-        <v>0.279951645379136</v>
+        <v>4382.847944639602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B25" t="n">
-        <v>11758.343179097401</v>
+        <v>-0.2609359276473886</v>
       </c>
       <c r="C25" t="n">
-        <v>28320.42917045351</v>
+        <v>-0.23436095548639546</v>
       </c>
       <c r="D25" t="n">
-        <v>40824.97716517283</v>
+        <v>-0.4403196324495272</v>
       </c>
       <c r="E25" t="n">
-        <v>10111.249490810505</v>
+        <v>-0.29918563620536165</v>
       </c>
       <c r="F25" t="n">
-        <v>3923.41328361285</v>
+        <v>-0.4863217666494868</v>
       </c>
       <c r="G25" t="n">
-        <v>9576.853017989373</v>
+        <v>-1.3960185077019218</v>
       </c>
       <c r="H25" t="n">
-        <v>20683.032428152183</v>
+        <v>-0.8401993683431701</v>
       </c>
       <c r="I25" t="n">
-        <v>16931.614435805954</v>
+        <v>-0.9438036382441678</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>0.4393327032441752</v>
       </c>
       <c r="C26" t="n">
-        <v>8.0</v>
+        <v>0.3663830776886597</v>
       </c>
       <c r="D26" t="n">
-        <v>8.0</v>
+        <v>0.6320819726196802</v>
       </c>
       <c r="E26" t="n">
-        <v>8.0</v>
+        <v>0.4979203858869375</v>
       </c>
       <c r="F26" t="n">
-        <v>8.0</v>
+        <v>0.8464773463594939</v>
       </c>
       <c r="G26" t="n">
-        <v>8.0</v>
+        <v>2.6843947352454713</v>
       </c>
       <c r="H26" t="n">
-        <v>8.0</v>
+        <v>1.4314421998144833</v>
       </c>
       <c r="I26" t="n">
-        <v>8.0</v>
+        <v>1.7689894590281163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>0.024928706901923465</v>
+        <v>5.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.681637158687927E-4</v>
+        <v>5.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14629242406540333</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03417321901077364</v>
+        <v>5.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0032243125794090754</v>
+        <v>5.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.14881650848794592</v>
+        <v>5.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2670349208938268</v>
+        <v>5.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.37526174434484894</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" t="n">
-        <v>16854.81819124473</v>
+        <v>0.03689156751149253</v>
       </c>
       <c r="C28" t="n">
-        <v>36869.90965229002</v>
+        <v>0.003729711573030151</v>
       </c>
       <c r="D28" t="n">
-        <v>79708.23070695928</v>
+        <v>0.19962432904684269</v>
       </c>
       <c r="E28" t="n">
-        <v>25031.816664179078</v>
+        <v>0.021039585748947952</v>
       </c>
       <c r="F28" t="n">
-        <v>12943.238403146153</v>
+        <v>2.0321506385315166E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>43062.95798189457</v>
+        <v>0.1795207763618876</v>
       </c>
       <c r="H28" t="n">
-        <v>64519.52575038422</v>
+        <v>0.21429761631984406</v>
       </c>
       <c r="I28" t="n">
-        <v>78016.83599180642</v>
+        <v>0.3446931983741019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>10938.954020709534</v>
       </c>
       <c r="C29" t="n">
-        <v>9.0</v>
+        <v>32318.412027718907</v>
       </c>
       <c r="D29" t="n">
-        <v>9.0</v>
+        <v>47302.94917189492</v>
       </c>
       <c r="E29" t="n">
-        <v>9.0</v>
+        <v>21226.972606814743</v>
       </c>
       <c r="F29" t="n">
-        <v>9.0</v>
+        <v>9539.563359455013</v>
       </c>
       <c r="G29" t="n">
-        <v>9.0</v>
+        <v>10770.674388868589</v>
       </c>
       <c r="H29" t="n">
-        <v>9.0</v>
+        <v>30913.160681577283</v>
       </c>
       <c r="I29" t="n">
-        <v>9.0</v>
+        <v>27969.40081968139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02317723576316556</v>
+        <v>-0.2878810184368422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0015022432516216475</v>
+        <v>-0.019874962927021622</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1360921863435407</v>
+        <v>-0.4536677983355568</v>
       </c>
       <c r="E30" t="n">
-        <v>0.044249597114496574</v>
+        <v>-0.11284187312750249</v>
       </c>
       <c r="F30" t="n">
-        <v>0.018713220441416586</v>
+        <v>-0.011455436893640258</v>
       </c>
       <c r="G30" t="n">
-        <v>0.16069427585062965</v>
+        <v>-0.6938461135940392</v>
       </c>
       <c r="H30" t="n">
-        <v>0.223557670973365</v>
+        <v>-0.5236314262988067</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3920135702617642</v>
+        <v>-0.7077005831424952</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>11817.325802993057</v>
+        <v>0.8273985117380799</v>
       </c>
       <c r="C31" t="n">
-        <v>37345.373540974935</v>
+        <v>0.039480058662256984</v>
       </c>
       <c r="D31" t="n">
-        <v>54896.603619840775</v>
+        <v>1.0269501732328499</v>
       </c>
       <c r="E31" t="n">
-        <v>15802.71465805272</v>
+        <v>0.3163836066697841</v>
       </c>
       <c r="F31" t="n">
-        <v>9558.724526836439</v>
+        <v>0.0073166897362348425</v>
       </c>
       <c r="G31" t="n">
-        <v>16599.67709214197</v>
+        <v>2.019964904619499</v>
       </c>
       <c r="H31" t="n">
-        <v>26752.059081744595</v>
+        <v>1.2931125078342076</v>
       </c>
       <c r="I31" t="n">
-        <v>1276.7134678250213</v>
+        <v>1.950620319335562</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="G32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="H32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>0.012915656471513841</v>
+        <v>0.032132402453915944</v>
       </c>
       <c r="C33" t="n">
-        <v>3.606039723494205E-6</v>
+        <v>2.778272255579214E-6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1868227057301757</v>
+        <v>0.2642499664439676</v>
       </c>
       <c r="E33" t="n">
-        <v>0.025384549341131483</v>
+        <v>0.09814711934284001</v>
       </c>
       <c r="F33" t="n">
-        <v>7.99488989917618E-10</v>
+        <v>0.0015097865591583676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.10192787844853009</v>
+        <v>0.19989116565167195</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3255210844908154</v>
+        <v>0.06755153771808067</v>
       </c>
       <c r="I33" t="n">
-        <v>0.347424518678621</v>
+        <v>0.3365152435581099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B34" t="n">
-        <v>20814.31400752111</v>
+        <v>5345.884119590832</v>
       </c>
       <c r="C34" t="n">
-        <v>41095.83184078869</v>
+        <v>34842.359084532174</v>
       </c>
       <c r="D34" t="n">
-        <v>142691.71270159242</v>
+        <v>-21239.828228577062</v>
       </c>
       <c r="E34" t="n">
-        <v>33903.2176635295</v>
+        <v>-9317.701747916057</v>
       </c>
       <c r="F34" t="n">
-        <v>14743.06555531829</v>
+        <v>10666.151722595734</v>
       </c>
       <c r="G34" t="n">
-        <v>80146.0058596188</v>
+        <v>-28024.57671790394</v>
       </c>
       <c r="H34" t="n">
-        <v>135456.88950082872</v>
+        <v>34965.33224309982</v>
       </c>
       <c r="I34" t="n">
-        <v>154747.29099764573</v>
+        <v>-39371.963933160514</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6735340890754455</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.746422117269613E-4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.2169384258108145</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1.3374358463965688</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.04929931633368134</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.6258400938171769</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.4095333037337353</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1.3822945453683615</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7315976375706029</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.0178225558130267E-5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.4222372097627096</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.5097113372061008</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.050915640879017225</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.9706494262151883</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4093419018639504</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.9004893319549268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.030631014346905718</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.002078914373349606</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1532442235712769</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08148221604947342</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.04383729068825366</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.17584827259806587</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.20605109997442958</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3068269683982453</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11010.162720143833</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35139.17095779838</v>
+      </c>
+      <c r="D39" t="n">
+        <v>48019.54920930998</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10343.167180013736</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4422.502469193135</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10598.465775348843</v>
+      </c>
+      <c r="H39" t="n">
+        <v>28606.417056470254</v>
+      </c>
+      <c r="I39" t="n">
+        <v>20587.808994768387</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.34176132189261066</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.015596045108692835</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.4647451955215466</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.6217122736206568</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.6591636748542469</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.781910857020441</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.6275435603908435</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.8007689411272094</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7241177702778179</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.023444001027869737</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8307892755568521</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.320183048094714</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.4179262915588529</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.6473391958623242</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.2009723219412853</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.7559006661542143</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.02905683789841331</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.721432703656182E-4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.14299624756712984</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.03982164980135075</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01072204239159352</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.13915591745914072</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2755750004451538</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3617001611668524</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16432.463216366465</v>
+      </c>
+      <c r="C44" t="n">
+        <v>36661.39494995882</v>
+      </c>
+      <c r="D44" t="n">
+        <v>78899.44418741138</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24784.14331612885</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12833.048959530786</v>
+      </c>
+      <c r="G44" t="n">
+        <v>41803.61837164562</v>
+      </c>
+      <c r="H44" t="n">
+        <v>62850.19232113655</v>
+      </c>
+      <c r="I44" t="n">
+        <v>75735.81826741097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.03936538828590441</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-7.476479414681991E-4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.14353368535988065</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.03996797465471369</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.013448773059558938</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.1550444904143794</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.2813456448124221</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.3742089139871062</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7005089806037996</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.011129731196832787</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7792144853868508</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6828505243320285</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3492764106006235</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.2806030112458333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.6149338792725116</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.0049774553827415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.028141567766276125</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.365667263596468E-4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.11449059998228533</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.034384025571352714</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.023233461677514486</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1950581109923946</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.22902745561594406</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.37532821166787295</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10551.70942066019</v>
+      </c>
+      <c r="C49" t="n">
+        <v>37512.16490850756</v>
+      </c>
+      <c r="D49" t="n">
+        <v>59680.054193932374</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17972.833926166313</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8416.390753988082</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8625.41206899135</v>
+      </c>
+      <c r="H49" t="n">
+        <v>24790.536052488165</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3641.7951725197076</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.38470536334506167</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.0027773000774226064</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.3861672591854647</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.32814198429170527</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.406837695235057</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.8611952762172872</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.7283197273834728</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.972625409229751</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7344398688593443</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.004079906954674093</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.6214744900016543</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6146201205738212</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7633753536742347</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.6603066356074423</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.3129941264613025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.1008544537302636</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.018909422846368925</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.323246147128345E-5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.17974141804645594</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.02309213296489957</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.1016707852013163E-7</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.11032656198823805</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.31382208050591276</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.354045041019575</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22109.59462016132</v>
+      </c>
+      <c r="C54" t="n">
+        <v>40993.43715673951</v>
+      </c>
+      <c r="D54" t="n">
+        <v>147541.4153979445</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34233.632768776966</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14634.62789857639</v>
+      </c>
+      <c r="G54" t="n">
+        <v>84535.87464824395</v>
+      </c>
+      <c r="H54" t="n">
+        <v>142316.1029293297</v>
+      </c>
+      <c r="I54" t="n">
+        <v>166128.61845069562</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.16328091254667743</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.00190559419367764</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.10172055528883539</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1350209107243039</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.008005564237641427</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.16616037983111265</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.091590766183409</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.05131974417629803</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5401352662334971</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.62723769740825E-4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9363960748115407</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.44313265643723576</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.164143142726369E-6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8918873462628084</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.7325006884020009</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.975741224886327</v>
       </c>
     </row>
   </sheetData>
